--- a/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46005696094691</v>
+        <v>25.460056960947</v>
       </c>
       <c r="C2">
-        <v>15.98640834813247</v>
+        <v>15.98640834813271</v>
       </c>
       <c r="D2">
-        <v>8.366499703816526</v>
+        <v>8.366499703816507</v>
       </c>
       <c r="E2">
-        <v>11.12512292503661</v>
+        <v>11.12512292503659</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.9551193005254</v>
+        <v>63.95511930052545</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.561630865652011</v>
+        <v>5.561630865651987</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.88856418340818</v>
+        <v>13.88856418340817</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.45098409714715</v>
+        <v>23.45098409714697</v>
       </c>
       <c r="C3">
-        <v>14.69484236101325</v>
+        <v>14.69484236101332</v>
       </c>
       <c r="D3">
-        <v>7.84183724918921</v>
+        <v>7.841837249189173</v>
       </c>
       <c r="E3">
-        <v>10.45622929485688</v>
+        <v>10.45622929485691</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.78098565756132</v>
+        <v>59.7809856575609</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.406132970878558</v>
+        <v>5.406132970878632</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.80864039307036</v>
+        <v>12.80864039307041</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.17990996508315</v>
+        <v>22.1799099650831</v>
       </c>
       <c r="C4">
-        <v>13.87937566885447</v>
+        <v>13.87937566885419</v>
       </c>
       <c r="D4">
-        <v>7.516203142572567</v>
+        <v>7.516203142572595</v>
       </c>
       <c r="E4">
-        <v>10.04233771893811</v>
+        <v>10.04233771893806</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.1648667844179</v>
+        <v>57.16486678441805</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.314699679334217</v>
+        <v>5.314699679334192</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.12306858707761</v>
+        <v>12.12306858707748</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.6517662777974</v>
+        <v>21.65176627779741</v>
       </c>
       <c r="C5">
-        <v>13.54078879696155</v>
+        <v>13.54078879696148</v>
       </c>
       <c r="D5">
-        <v>7.382572399225887</v>
+        <v>7.382572399225841</v>
       </c>
       <c r="E5">
-        <v>9.872799014758689</v>
+        <v>9.872799014758632</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.08452372282125</v>
+        <v>56.08452372282134</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.278386991628778</v>
+        <v>5.278386991628736</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.83759704926406</v>
+        <v>11.83759704926414</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.56343525832702</v>
+        <v>21.5634352583269</v>
       </c>
       <c r="C6">
-        <v>13.48417078493308</v>
+        <v>13.4841707849328</v>
       </c>
       <c r="D6">
-        <v>7.360326324337383</v>
+        <v>7.360326324337358</v>
       </c>
       <c r="E6">
-        <v>9.844593695357259</v>
+        <v>9.84459369535719</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.90425444520498</v>
+        <v>55.90425444520463</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.272412717877851</v>
+        <v>5.272412717877782</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.78981491179755</v>
+        <v>11.78981491179749</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.17282928839859</v>
+        <v>22.17282928839869</v>
       </c>
       <c r="C7">
-        <v>13.87483555563032</v>
+        <v>13.87483555563013</v>
       </c>
       <c r="D7">
-        <v>7.51440475613107</v>
+        <v>7.514404756131081</v>
       </c>
       <c r="E7">
-        <v>10.04005484439304</v>
+        <v>10.040054844393</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.15035549050165</v>
+        <v>57.15035549050192</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.314206201038927</v>
+        <v>5.31420620103892</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.1192438332349</v>
+        <v>12.11924383323489</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>24.77461461460411</v>
       </c>
       <c r="C8">
-        <v>15.54531919336979</v>
+        <v>15.54531919336967</v>
       </c>
       <c r="D8">
-        <v>8.186268281675927</v>
+        <v>8.186268281675993</v>
       </c>
       <c r="E8">
         <v>10.89508212578761</v>
@@ -655,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.5262591284607</v>
+        <v>62.5262591284606</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.507129485571897</v>
+        <v>5.507129485571867</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.5205893644274</v>
+        <v>13.52058936442732</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.62232849971462</v>
+        <v>29.6223284997146</v>
       </c>
       <c r="C9">
-        <v>18.67826918629494</v>
+        <v>18.67826918629472</v>
       </c>
       <c r="D9">
-        <v>9.482182957570776</v>
+        <v>9.482182957570821</v>
       </c>
       <c r="E9">
         <v>12.55439939715418</v>
@@ -693,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.71035197582199</v>
+        <v>72.71035197582148</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.921672724759295</v>
+        <v>5.921672724759255</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.11427505002623</v>
+        <v>16.11427505002617</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.10900955061986</v>
+        <v>33.10900955061994</v>
       </c>
       <c r="C10">
-        <v>20.95653359394652</v>
+        <v>20.9565335939466</v>
       </c>
       <c r="D10">
-        <v>10.5442816454496</v>
+        <v>10.54428164544952</v>
       </c>
       <c r="E10">
-        <v>13.78940401963441</v>
+        <v>13.78940401963439</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.10959053780716</v>
+        <v>80.10959053780735</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.256419744493617</v>
+        <v>6.256419744493612</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.96898015561938</v>
+        <v>17.96898015561935</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>34.70515840966959</v>
       </c>
       <c r="C11">
-        <v>22.00834401819544</v>
+        <v>22.0083440181955</v>
       </c>
       <c r="D11">
-        <v>11.03227370451592</v>
+        <v>11.03227370451593</v>
       </c>
       <c r="E11">
         <v>14.42899446522385</v>
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.50589722276696</v>
+        <v>83.50589722276767</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.418079865262409</v>
+        <v>6.418079865262419</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.81546219390132</v>
+        <v>18.81546219390128</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.31418316478307</v>
+        <v>35.31418316478284</v>
       </c>
       <c r="C12">
-        <v>22.41131190601992</v>
+        <v>22.41131190601994</v>
       </c>
       <c r="D12">
-        <v>11.21787777388259</v>
+        <v>11.21787777388239</v>
       </c>
       <c r="E12">
-        <v>14.67231170444897</v>
+        <v>14.67231170444883</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.8023599935547</v>
+        <v>84.80235999355378</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.480999667779979</v>
+        <v>6.480999667779932</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.13804195212147</v>
+        <v>19.13804195212137</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.18275188079863</v>
+        <v>35.18275188079868</v>
       </c>
       <c r="C13">
-        <v>22.32426931774959</v>
+        <v>22.3242693177497</v>
       </c>
       <c r="D13">
-        <v>11.17785167492853</v>
+        <v>11.17785167492852</v>
       </c>
       <c r="E13">
-        <v>14.61983689165249</v>
+        <v>14.61983689165255</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.52256324929751</v>
+        <v>84.52256324929745</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.467365915454105</v>
+        <v>6.467365915454121</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.06844582011182</v>
+        <v>19.06844582011191</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.75514903883353</v>
+        <v>34.75514903883367</v>
       </c>
       <c r="C14">
-        <v>22.04138568079945</v>
+        <v>22.04138568079938</v>
       </c>
       <c r="D14">
-        <v>11.04752124051348</v>
+        <v>11.04752124051357</v>
       </c>
       <c r="E14">
-        <v>14.44898200639463</v>
+        <v>14.44898200639467</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.61230817481386</v>
+        <v>83.61230817481416</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.423219678526007</v>
+        <v>6.423219678525942</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.84194882098238</v>
+        <v>18.84194882098241</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.49394109056517</v>
+        <v>34.49394109056541</v>
       </c>
       <c r="C15">
-        <v>21.8688068487402</v>
+        <v>21.86880684874011</v>
       </c>
       <c r="D15">
-        <v>10.9678261498406</v>
+        <v>10.96782614984067</v>
       </c>
       <c r="E15">
-        <v>14.34451435946867</v>
+        <v>14.34451435946877</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.05631450452216</v>
+        <v>83.05631450452285</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.396413354948487</v>
+        <v>6.396413354948521</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.70353608590989</v>
+        <v>18.70353608590993</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.00514551725481</v>
+        <v>33.00514551725512</v>
       </c>
       <c r="C16">
-        <v>20.88829692215456</v>
+        <v>20.888296922155</v>
       </c>
       <c r="D16">
-        <v>10.51245110939386</v>
+        <v>10.51245110939403</v>
       </c>
       <c r="E16">
-        <v>13.74769165882734</v>
+        <v>13.7476916588275</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.88870947684849</v>
+        <v>79.88870947684987</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.246070992170539</v>
+        <v>6.246070992170579</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.91384420886963</v>
+        <v>17.91384420886985</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.09632137875515</v>
+        <v>32.0963213787553</v>
       </c>
       <c r="C17">
-        <v>20.29223799927601</v>
+        <v>20.2922379992763</v>
       </c>
       <c r="D17">
-        <v>10.23354379248566</v>
+        <v>10.23354379248573</v>
       </c>
       <c r="E17">
-        <v>13.42371537051946</v>
+        <v>13.4237153705195</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.95689681916012</v>
+        <v>77.95689681916016</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.156457085816981</v>
+        <v>6.156457085817016</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.43110895894854</v>
+        <v>17.43110895894868</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.574297015573</v>
+        <v>31.57429701557311</v>
       </c>
       <c r="C18">
-        <v>19.95066708043674</v>
+        <v>19.95066708043652</v>
       </c>
       <c r="D18">
-        <v>10.07303229527385</v>
+        <v>10.07303229527382</v>
       </c>
       <c r="E18">
         <v>13.23934931730129</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.84816861308715</v>
+        <v>76.84816861308738</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.105769458077118</v>
+        <v>6.105769458077121</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.15359002495908</v>
+        <v>17.15359002495909</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.39759018067096</v>
+        <v>31.39759018067095</v>
       </c>
       <c r="C19">
-        <v>19.8351724184099</v>
+        <v>19.83517241840995</v>
       </c>
       <c r="D19">
-        <v>10.01864846564837</v>
+        <v>10.01864846564844</v>
       </c>
       <c r="E19">
-        <v>13.17704531860833</v>
+        <v>13.17704531860834</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.47303454030687</v>
+        <v>76.47303454030705</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.088745727113394</v>
+        <v>6.088745727113417</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.05960890870688</v>
+        <v>17.05960890870689</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19297451322578</v>
+        <v>32.19297451322569</v>
       </c>
       <c r="C20">
-        <v>20.35554320932173</v>
+        <v>20.35554320932167</v>
       </c>
       <c r="D20">
-        <v>10.26323810009815</v>
+        <v>10.26323810009812</v>
       </c>
       <c r="E20">
-        <v>13.45789960768783</v>
+        <v>13.45789960768784</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.16225647051466</v>
+        <v>78.16225647051384</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.165905898040847</v>
+        <v>6.165905898040826</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.48247252546051</v>
+        <v>17.48247252546044</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.88059087451074</v>
+        <v>34.88059087451024</v>
       </c>
       <c r="C21">
-        <v>22.12432484286595</v>
+        <v>22.1243248428656</v>
       </c>
       <c r="D21">
-        <v>11.08577213089892</v>
+        <v>11.08577213089885</v>
       </c>
       <c r="E21">
-        <v>14.4991248784956</v>
+        <v>14.4991248784955</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.87933225822614</v>
+        <v>83.87933225822478</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.436136790894464</v>
+        <v>6.436136790894424</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.90840535654427</v>
+        <v>18.90840535654415</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.66628524668701</v>
+        <v>36.66628524668687</v>
       </c>
       <c r="C22">
-        <v>23.30940014112651</v>
+        <v>23.30940014112631</v>
       </c>
       <c r="D22">
-        <v>11.6287183851206</v>
+        <v>11.6287183851205</v>
       </c>
       <c r="E22">
-        <v>15.21102064610005</v>
+        <v>15.21102064609996</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.7187821010351</v>
+        <v>87.71878210103419</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.622948985832067</v>
+        <v>6.622948985832037</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.85342679678817</v>
+        <v>19.85342679678806</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.70919417507392</v>
+        <v>35.70919417507382</v>
       </c>
       <c r="C23">
-        <v>22.67318326720273</v>
+        <v>22.67318326720261</v>
       </c>
       <c r="D23">
-        <v>11.33807928629347</v>
+        <v>11.33807928629363</v>
       </c>
       <c r="E23">
-        <v>14.82990684769473</v>
+        <v>14.82990684769479</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.64329432666293</v>
+        <v>85.6432943266626</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.522154442003676</v>
+        <v>6.52215444200364</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>32.14927638656982</v>
       </c>
       <c r="C24">
-        <v>20.32691963483105</v>
+        <v>20.32691963483136</v>
       </c>
       <c r="D24">
-        <v>10.24981387445066</v>
+        <v>10.24981387445063</v>
       </c>
       <c r="E24">
         <v>13.44244263835628</v>
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.06940788409104</v>
+        <v>78.06940788409069</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.161631521333765</v>
+        <v>6.161631521333762</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.45925113493145</v>
+        <v>17.45925113493155</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.33111234119506</v>
+        <v>28.3311123411949</v>
       </c>
       <c r="C25">
-        <v>17.84039086226499</v>
+        <v>17.84039086226461</v>
       </c>
       <c r="D25">
-        <v>9.13274264722059</v>
+        <v>9.132742647220651</v>
       </c>
       <c r="E25">
-        <v>12.10584524348099</v>
+        <v>12.10584524348102</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.98240780709436</v>
+        <v>69.98240780709467</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.80496117436404</v>
+        <v>5.804961174364057</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.425294929762</v>
+        <v>15.42529492976189</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.460056960947</v>
+        <v>25.46005696094691</v>
       </c>
       <c r="C2">
-        <v>15.98640834813271</v>
+        <v>15.98640834813247</v>
       </c>
       <c r="D2">
-        <v>8.366499703816507</v>
+        <v>8.366499703816526</v>
       </c>
       <c r="E2">
-        <v>11.12512292503659</v>
+        <v>11.12512292503661</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.95511930052545</v>
+        <v>63.9551193005254</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.561630865651987</v>
+        <v>5.561630865652011</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.88856418340817</v>
+        <v>13.88856418340818</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.45098409714697</v>
+        <v>23.45098409714715</v>
       </c>
       <c r="C3">
-        <v>14.69484236101332</v>
+        <v>14.69484236101325</v>
       </c>
       <c r="D3">
-        <v>7.841837249189173</v>
+        <v>7.84183724918921</v>
       </c>
       <c r="E3">
-        <v>10.45622929485691</v>
+        <v>10.45622929485688</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.7809856575609</v>
+        <v>59.78098565756132</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.406132970878632</v>
+        <v>5.406132970878558</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.80864039307041</v>
+        <v>12.80864039307036</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.1799099650831</v>
+        <v>22.17990996508315</v>
       </c>
       <c r="C4">
-        <v>13.87937566885419</v>
+        <v>13.87937566885447</v>
       </c>
       <c r="D4">
-        <v>7.516203142572595</v>
+        <v>7.516203142572567</v>
       </c>
       <c r="E4">
-        <v>10.04233771893806</v>
+        <v>10.04233771893811</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.16486678441805</v>
+        <v>57.1648667844179</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.314699679334192</v>
+        <v>5.314699679334217</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.12306858707748</v>
+        <v>12.12306858707761</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.65176627779741</v>
+        <v>21.6517662777974</v>
       </c>
       <c r="C5">
-        <v>13.54078879696148</v>
+        <v>13.54078879696155</v>
       </c>
       <c r="D5">
-        <v>7.382572399225841</v>
+        <v>7.382572399225887</v>
       </c>
       <c r="E5">
-        <v>9.872799014758632</v>
+        <v>9.872799014758689</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.08452372282134</v>
+        <v>56.08452372282125</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>5.278386991628736</v>
+        <v>5.278386991628778</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.83759704926414</v>
+        <v>11.83759704926406</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.5634352583269</v>
+        <v>21.56343525832702</v>
       </c>
       <c r="C6">
-        <v>13.4841707849328</v>
+        <v>13.48417078493308</v>
       </c>
       <c r="D6">
-        <v>7.360326324337358</v>
+        <v>7.360326324337383</v>
       </c>
       <c r="E6">
-        <v>9.84459369535719</v>
+        <v>9.844593695357259</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.90425444520463</v>
+        <v>55.90425444520498</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>5.272412717877782</v>
+        <v>5.272412717877851</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.78981491179749</v>
+        <v>11.78981491179755</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.17282928839869</v>
+        <v>22.17282928839859</v>
       </c>
       <c r="C7">
-        <v>13.87483555563013</v>
+        <v>13.87483555563032</v>
       </c>
       <c r="D7">
-        <v>7.514404756131081</v>
+        <v>7.51440475613107</v>
       </c>
       <c r="E7">
-        <v>10.040054844393</v>
+        <v>10.04005484439304</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.15035549050192</v>
+        <v>57.15035549050165</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>5.31420620103892</v>
+        <v>5.314206201038927</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.11924383323489</v>
+        <v>12.1192438332349</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,10 +643,10 @@
         <v>24.77461461460411</v>
       </c>
       <c r="C8">
-        <v>15.54531919336967</v>
+        <v>15.54531919336979</v>
       </c>
       <c r="D8">
-        <v>8.186268281675993</v>
+        <v>8.186268281675927</v>
       </c>
       <c r="E8">
         <v>10.89508212578761</v>
@@ -655,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.5262591284606</v>
+        <v>62.5262591284607</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.507129485571867</v>
+        <v>5.507129485571897</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.52058936442732</v>
+        <v>13.5205893644274</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.6223284997146</v>
+        <v>29.62232849971462</v>
       </c>
       <c r="C9">
-        <v>18.67826918629472</v>
+        <v>18.67826918629494</v>
       </c>
       <c r="D9">
-        <v>9.482182957570821</v>
+        <v>9.482182957570776</v>
       </c>
       <c r="E9">
         <v>12.55439939715418</v>
@@ -693,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.71035197582148</v>
+        <v>72.71035197582199</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5.921672724759255</v>
+        <v>5.921672724759295</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.11427505002617</v>
+        <v>16.11427505002623</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.10900955061994</v>
+        <v>33.10900955061986</v>
       </c>
       <c r="C10">
-        <v>20.9565335939466</v>
+        <v>20.95653359394652</v>
       </c>
       <c r="D10">
-        <v>10.54428164544952</v>
+        <v>10.5442816454496</v>
       </c>
       <c r="E10">
-        <v>13.78940401963439</v>
+        <v>13.78940401963441</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.10959053780735</v>
+        <v>80.10959053780716</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.256419744493612</v>
+        <v>6.256419744493617</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.96898015561935</v>
+        <v>17.96898015561938</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,10 +757,10 @@
         <v>34.70515840966959</v>
       </c>
       <c r="C11">
-        <v>22.0083440181955</v>
+        <v>22.00834401819544</v>
       </c>
       <c r="D11">
-        <v>11.03227370451593</v>
+        <v>11.03227370451592</v>
       </c>
       <c r="E11">
         <v>14.42899446522385</v>
@@ -769,19 +769,19 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.50589722276767</v>
+        <v>83.50589722276696</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.418079865262419</v>
+        <v>6.418079865262409</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.81546219390128</v>
+        <v>18.81546219390132</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.31418316478284</v>
+        <v>35.31418316478307</v>
       </c>
       <c r="C12">
-        <v>22.41131190601994</v>
+        <v>22.41131190601992</v>
       </c>
       <c r="D12">
-        <v>11.21787777388239</v>
+        <v>11.21787777388259</v>
       </c>
       <c r="E12">
-        <v>14.67231170444883</v>
+        <v>14.67231170444897</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.80235999355378</v>
+        <v>84.8023599935547</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.480999667779932</v>
+        <v>6.480999667779979</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.13804195212137</v>
+        <v>19.13804195212147</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.18275188079868</v>
+        <v>35.18275188079863</v>
       </c>
       <c r="C13">
-        <v>22.3242693177497</v>
+        <v>22.32426931774959</v>
       </c>
       <c r="D13">
-        <v>11.17785167492852</v>
+        <v>11.17785167492853</v>
       </c>
       <c r="E13">
-        <v>14.61983689165255</v>
+        <v>14.61983689165249</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.52256324929745</v>
+        <v>84.52256324929751</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>6.467365915454121</v>
+        <v>6.467365915454105</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.06844582011191</v>
+        <v>19.06844582011182</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.75514903883367</v>
+        <v>34.75514903883353</v>
       </c>
       <c r="C14">
-        <v>22.04138568079938</v>
+        <v>22.04138568079945</v>
       </c>
       <c r="D14">
-        <v>11.04752124051357</v>
+        <v>11.04752124051348</v>
       </c>
       <c r="E14">
-        <v>14.44898200639467</v>
+        <v>14.44898200639463</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.61230817481416</v>
+        <v>83.61230817481386</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>6.423219678525942</v>
+        <v>6.423219678526007</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.84194882098241</v>
+        <v>18.84194882098238</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.49394109056541</v>
+        <v>34.49394109056517</v>
       </c>
       <c r="C15">
-        <v>21.86880684874011</v>
+        <v>21.8688068487402</v>
       </c>
       <c r="D15">
-        <v>10.96782614984067</v>
+        <v>10.9678261498406</v>
       </c>
       <c r="E15">
-        <v>14.34451435946877</v>
+        <v>14.34451435946867</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.05631450452285</v>
+        <v>83.05631450452216</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.396413354948521</v>
+        <v>6.396413354948487</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.70353608590993</v>
+        <v>18.70353608590989</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.00514551725512</v>
+        <v>33.00514551725481</v>
       </c>
       <c r="C16">
-        <v>20.888296922155</v>
+        <v>20.88829692215456</v>
       </c>
       <c r="D16">
-        <v>10.51245110939403</v>
+        <v>10.51245110939386</v>
       </c>
       <c r="E16">
-        <v>13.7476916588275</v>
+        <v>13.74769165882734</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.88870947684987</v>
+        <v>79.88870947684849</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.246070992170579</v>
+        <v>6.246070992170539</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.91384420886985</v>
+        <v>17.91384420886963</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.0963213787553</v>
+        <v>32.09632137875515</v>
       </c>
       <c r="C17">
-        <v>20.2922379992763</v>
+        <v>20.29223799927601</v>
       </c>
       <c r="D17">
-        <v>10.23354379248573</v>
+        <v>10.23354379248566</v>
       </c>
       <c r="E17">
-        <v>13.4237153705195</v>
+        <v>13.42371537051946</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.95689681916016</v>
+        <v>77.95689681916012</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.156457085817016</v>
+        <v>6.156457085816981</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.43110895894868</v>
+        <v>17.43110895894854</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.57429701557311</v>
+        <v>31.574297015573</v>
       </c>
       <c r="C18">
-        <v>19.95066708043652</v>
+        <v>19.95066708043674</v>
       </c>
       <c r="D18">
-        <v>10.07303229527382</v>
+        <v>10.07303229527385</v>
       </c>
       <c r="E18">
         <v>13.23934931730129</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.84816861308738</v>
+        <v>76.84816861308715</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.105769458077121</v>
+        <v>6.105769458077118</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.15359002495909</v>
+        <v>17.15359002495908</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.39759018067095</v>
+        <v>31.39759018067096</v>
       </c>
       <c r="C19">
-        <v>19.83517241840995</v>
+        <v>19.8351724184099</v>
       </c>
       <c r="D19">
-        <v>10.01864846564844</v>
+        <v>10.01864846564837</v>
       </c>
       <c r="E19">
-        <v>13.17704531860834</v>
+        <v>13.17704531860833</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.47303454030705</v>
+        <v>76.47303454030687</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.088745727113417</v>
+        <v>6.088745727113394</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.05960890870689</v>
+        <v>17.05960890870688</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19297451322569</v>
+        <v>32.19297451322578</v>
       </c>
       <c r="C20">
-        <v>20.35554320932167</v>
+        <v>20.35554320932173</v>
       </c>
       <c r="D20">
-        <v>10.26323810009812</v>
+        <v>10.26323810009815</v>
       </c>
       <c r="E20">
-        <v>13.45789960768784</v>
+        <v>13.45789960768783</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.16225647051384</v>
+        <v>78.16225647051466</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.165905898040826</v>
+        <v>6.165905898040847</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.48247252546044</v>
+        <v>17.48247252546051</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.88059087451024</v>
+        <v>34.88059087451074</v>
       </c>
       <c r="C21">
-        <v>22.1243248428656</v>
+        <v>22.12432484286595</v>
       </c>
       <c r="D21">
-        <v>11.08577213089885</v>
+        <v>11.08577213089892</v>
       </c>
       <c r="E21">
-        <v>14.4991248784955</v>
+        <v>14.4991248784956</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.87933225822478</v>
+        <v>83.87933225822614</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>6.436136790894424</v>
+        <v>6.436136790894464</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.90840535654415</v>
+        <v>18.90840535654427</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.66628524668687</v>
+        <v>36.66628524668701</v>
       </c>
       <c r="C22">
-        <v>23.30940014112631</v>
+        <v>23.30940014112651</v>
       </c>
       <c r="D22">
-        <v>11.6287183851205</v>
+        <v>11.6287183851206</v>
       </c>
       <c r="E22">
-        <v>15.21102064609996</v>
+        <v>15.21102064610005</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.71878210103419</v>
+        <v>87.7187821010351</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>6.622948985832037</v>
+        <v>6.622948985832067</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.85342679678806</v>
+        <v>19.85342679678817</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.70919417507382</v>
+        <v>35.70919417507392</v>
       </c>
       <c r="C23">
-        <v>22.67318326720261</v>
+        <v>22.67318326720273</v>
       </c>
       <c r="D23">
-        <v>11.33807928629363</v>
+        <v>11.33807928629347</v>
       </c>
       <c r="E23">
-        <v>14.82990684769479</v>
+        <v>14.82990684769473</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.6432943266626</v>
+        <v>85.64329432666293</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>6.52215444200364</v>
+        <v>6.522154442003676</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1251,10 +1251,10 @@
         <v>32.14927638656982</v>
       </c>
       <c r="C24">
-        <v>20.32691963483136</v>
+        <v>20.32691963483105</v>
       </c>
       <c r="D24">
-        <v>10.24981387445063</v>
+        <v>10.24981387445066</v>
       </c>
       <c r="E24">
         <v>13.44244263835628</v>
@@ -1263,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.06940788409069</v>
+        <v>78.06940788409104</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.161631521333762</v>
+        <v>6.161631521333765</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.45925113493155</v>
+        <v>17.45925113493145</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.3311123411949</v>
+        <v>28.33111234119506</v>
       </c>
       <c r="C25">
-        <v>17.84039086226461</v>
+        <v>17.84039086226499</v>
       </c>
       <c r="D25">
-        <v>9.132742647220651</v>
+        <v>9.13274264722059</v>
       </c>
       <c r="E25">
-        <v>12.10584524348102</v>
+        <v>12.10584524348099</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.98240780709467</v>
+        <v>69.98240780709436</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.804961174364057</v>
+        <v>5.80496117436404</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.42529492976189</v>
+        <v>15.425294929762</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.46005696094691</v>
+        <v>25.45535393220491</v>
       </c>
       <c r="C2">
-        <v>15.98640834813247</v>
+        <v>15.98063086659256</v>
       </c>
       <c r="D2">
-        <v>8.366499703816526</v>
+        <v>8.365919267043477</v>
       </c>
       <c r="E2">
-        <v>11.12512292503661</v>
+        <v>11.12410484389771</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.9551193005254</v>
+        <v>63.39849356240457</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>63.94091504735725</v>
       </c>
       <c r="I2">
-        <v>5.561630865652011</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.561087043830627</v>
       </c>
       <c r="K2">
-        <v>13.88856418340818</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13.88665572222242</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.45098409714715</v>
+        <v>23.44765420621848</v>
       </c>
       <c r="C3">
-        <v>14.69484236101325</v>
+        <v>14.69049953835605</v>
       </c>
       <c r="D3">
-        <v>7.84183724918921</v>
+        <v>7.841439981581547</v>
       </c>
       <c r="E3">
-        <v>10.45622929485688</v>
+        <v>10.45546092629688</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.78098565756132</v>
+        <v>59.04703910687697</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>59.77019613849773</v>
       </c>
       <c r="I3">
-        <v>5.406132970878558</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.405702472846023</v>
       </c>
       <c r="K3">
-        <v>12.80864039307036</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.80724475004434</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.17990996508315</v>
+        <v>22.1773237518249</v>
       </c>
       <c r="C4">
-        <v>13.87937566885447</v>
+        <v>13.87584206989647</v>
       </c>
       <c r="D4">
-        <v>7.516203142572567</v>
+        <v>7.515900629839753</v>
       </c>
       <c r="E4">
-        <v>10.04233771893811</v>
+        <v>10.0417071310407</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>57.1648667844179</v>
+        <v>56.30905245988593</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>57.15620152858265</v>
       </c>
       <c r="I4">
-        <v>5.314699679334217</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.314336099692942</v>
       </c>
       <c r="K4">
-        <v>12.12306858707761</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>12.12195258519774</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.6517662777974</v>
+        <v>21.64946190817884</v>
       </c>
       <c r="C5">
-        <v>13.54078879696155</v>
+        <v>13.53757046630529</v>
       </c>
       <c r="D5">
-        <v>7.382572399225887</v>
+        <v>7.382304881625321</v>
       </c>
       <c r="E5">
-        <v>9.872799014758689</v>
+        <v>9.872221742636423</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>56.08452372282125</v>
+        <v>55.17560567428202</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>56.07674056742319</v>
       </c>
       <c r="I5">
-        <v>5.278386991628778</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.278050327843338</v>
       </c>
       <c r="K5">
-        <v>11.83759704926406</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.83658793936838</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.56343525832702</v>
+        <v>21.56117649934261</v>
       </c>
       <c r="C6">
-        <v>13.48417078493308</v>
+        <v>13.48100401708358</v>
       </c>
       <c r="D6">
-        <v>7.360326324337383</v>
+        <v>7.360064420015277</v>
       </c>
       <c r="E6">
-        <v>9.844593695357259</v>
+        <v>9.844025132502654</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>55.90425444520498</v>
+        <v>54.98630536305794</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>55.89661900939964</v>
       </c>
       <c r="I6">
-        <v>5.272412717877851</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.272080509776536</v>
       </c>
       <c r="K6">
-        <v>11.78981491179755</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.78882316948618</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.17282928839859</v>
+        <v>22.17024695779015</v>
       </c>
       <c r="C7">
-        <v>13.87483555563032</v>
+        <v>13.87130626310142</v>
       </c>
       <c r="D7">
-        <v>7.51440475613107</v>
+        <v>7.514102729038244</v>
       </c>
       <c r="E7">
-        <v>10.04005484439304</v>
+        <v>10.03942498573636</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>57.15035549050165</v>
+        <v>56.29383916523361</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>57.14170205275809</v>
       </c>
       <c r="I7">
-        <v>5.314206201038927</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.313842985469405</v>
       </c>
       <c r="K7">
-        <v>12.1192438332349</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>12.11812929946207</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.77461461460411</v>
+        <v>24.77040831097132</v>
       </c>
       <c r="C8">
-        <v>15.54531919336979</v>
+        <v>15.54005364729291</v>
       </c>
       <c r="D8">
-        <v>8.186268281675927</v>
+        <v>8.185755246853905</v>
       </c>
       <c r="E8">
-        <v>10.89508212578761</v>
+        <v>10.89415410105147</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>62.5262591284607</v>
+        <v>61.91108851287764</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>62.51323272362631</v>
       </c>
       <c r="I8">
-        <v>5.507129485571897</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.506625508938024</v>
       </c>
       <c r="K8">
-        <v>13.5205893644274</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>13.5188662570532</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.62232849971462</v>
+        <v>29.61390512195379</v>
       </c>
       <c r="C9">
-        <v>18.67826918629494</v>
+        <v>18.66881400232951</v>
       </c>
       <c r="D9">
-        <v>9.482182957570776</v>
+        <v>9.481063571964562</v>
       </c>
       <c r="E9">
-        <v>12.55439939715418</v>
+        <v>12.55269719663686</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.71035197582199</v>
+        <v>72.47248639279368</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>72.68843942835429</v>
       </c>
       <c r="I9">
-        <v>5.921672724759295</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.920851208822127</v>
       </c>
       <c r="K9">
-        <v>16.11427505002623</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>16.11096762718033</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.10900955061986</v>
+        <v>33.09634511579797</v>
       </c>
       <c r="C10">
-        <v>20.95653359394652</v>
+        <v>20.9430795665371</v>
       </c>
       <c r="D10">
-        <v>10.5442816454496</v>
+        <v>10.54228289579881</v>
       </c>
       <c r="E10">
-        <v>13.78940401963441</v>
+        <v>13.78719597394774</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.10959053780716</v>
+        <v>80.09928710011461</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>80.09928710011461</v>
       </c>
       <c r="I10">
-        <v>6.256419744493617</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.255295597522152</v>
       </c>
       <c r="K10">
-        <v>17.96898015561938</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>17.96403834741074</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.70515840966959</v>
+        <v>34.69011843218187</v>
       </c>
       <c r="C11">
-        <v>22.00834401819544</v>
+        <v>21.99270405922855</v>
       </c>
       <c r="D11">
-        <v>11.03227370451592</v>
+        <v>11.0298573308308</v>
       </c>
       <c r="E11">
-        <v>14.42899446522385</v>
+        <v>14.42630351945772</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.50589722276696</v>
+        <v>83.59006700807815</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>83.59006700813076</v>
       </c>
       <c r="I11">
-        <v>6.418079865262409</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.416785361179651</v>
       </c>
       <c r="K11">
-        <v>18.81546219390132</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>18.80958492860369</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.31418316478307</v>
+        <v>35.29815197138068</v>
       </c>
       <c r="C12">
-        <v>22.41131190601992</v>
+        <v>22.39476853839428</v>
       </c>
       <c r="D12">
-        <v>11.21787777388259</v>
+        <v>11.21528351296546</v>
       </c>
       <c r="E12">
-        <v>14.67231170444897</v>
+        <v>14.66941342348253</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.8023599935547</v>
+        <v>84.92114161700771</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>84.92114161700772</v>
       </c>
       <c r="I12">
-        <v>6.480999667779979</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.479633427393855</v>
       </c>
       <c r="K12">
-        <v>19.13804195212147</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>19.13177026426846</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.18275188079863</v>
+        <v>35.16693882808487</v>
       </c>
       <c r="C13">
-        <v>22.32426931774959</v>
+        <v>22.30792436772886</v>
       </c>
       <c r="D13">
-        <v>11.17785167492853</v>
+        <v>11.17529673755604</v>
       </c>
       <c r="E13">
-        <v>14.61983689165249</v>
+        <v>14.61698452246226</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.52256324929751</v>
+        <v>84.63394012530757</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>84.6339401253075</v>
       </c>
       <c r="I13">
-        <v>6.467365915454105</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.466015501148624</v>
       </c>
       <c r="K13">
-        <v>19.06844582011182</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>19.06226113663748</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.75514903883353</v>
+        <v>34.74002955671285</v>
       </c>
       <c r="C14">
-        <v>22.04138568079945</v>
+        <v>22.02567308521936</v>
       </c>
       <c r="D14">
-        <v>11.04752124051348</v>
+        <v>11.04509067469532</v>
       </c>
       <c r="E14">
-        <v>14.44898200639463</v>
+        <v>14.4462745530905</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.61230817481386</v>
+        <v>83.69934801728976</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>83.69934801728972</v>
       </c>
       <c r="I14">
-        <v>6.423219678526007</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.421919436746634</v>
       </c>
       <c r="K14">
-        <v>18.84194882098238</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>18.83604000677951</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.49394109056517</v>
+        <v>34.47923345998635</v>
       </c>
       <c r="C15">
-        <v>21.8688068487402</v>
+        <v>21.85347087007532</v>
       </c>
       <c r="D15">
-        <v>10.9678261498406</v>
+        <v>10.96546895603969</v>
       </c>
       <c r="E15">
-        <v>14.34451435946867</v>
+        <v>14.3418921830965</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.05631450452216</v>
+        <v>83.12829983034351</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>83.12829983034349</v>
       </c>
       <c r="I15">
-        <v>6.396413354948487</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.395142806872587</v>
       </c>
       <c r="K15">
-        <v>18.70353608590989</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>18.69779053530343</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.00514551725481</v>
+        <v>32.99262528512917</v>
       </c>
       <c r="C16">
-        <v>20.88829692215456</v>
+        <v>20.87497664463287</v>
       </c>
       <c r="D16">
-        <v>10.51245110939386</v>
+        <v>10.51047729468407</v>
       </c>
       <c r="E16">
-        <v>13.74769165882734</v>
+        <v>13.74551225912737</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.88870947684849</v>
+        <v>79.87206173605561</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>79.87206173608973</v>
       </c>
       <c r="I16">
-        <v>6.246070992170539</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.244957132532262</v>
       </c>
       <c r="K16">
-        <v>17.91384420886963</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>17.9089587297378</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.09632137875515</v>
+        <v>32.08501290330566</v>
       </c>
       <c r="C17">
-        <v>20.29223799927601</v>
+        <v>20.28004708237274</v>
       </c>
       <c r="D17">
-        <v>10.23354379248566</v>
+        <v>10.23177751929084</v>
       </c>
       <c r="E17">
-        <v>13.42371537051946</v>
+        <v>13.4214595765333</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.95689681916012</v>
+        <v>77.88365680787867</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>77.92966354091715</v>
       </c>
       <c r="I17">
-        <v>6.156457085816981</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.155429541345676</v>
       </c>
       <c r="K17">
-        <v>17.43110895894854</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>17.42669472087566</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.574297015573</v>
+        <v>31.56364569519048</v>
       </c>
       <c r="C18">
-        <v>19.95066708043674</v>
+        <v>19.93909303027165</v>
       </c>
       <c r="D18">
-        <v>10.07303229527385</v>
+        <v>10.0713770400551</v>
       </c>
       <c r="E18">
-        <v>13.23934931730129</v>
+        <v>13.23722166007332</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.84816861308715</v>
+        <v>76.74151869629242</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>76.82212043825899</v>
       </c>
       <c r="I18">
-        <v>6.105769458077118</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.10478868642212</v>
       </c>
       <c r="K18">
-        <v>17.15359002495908</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>17.14942976929226</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.39759018067096</v>
+        <v>31.38715516701212</v>
       </c>
       <c r="C19">
-        <v>19.8351724184099</v>
+        <v>19.82380214940655</v>
       </c>
       <c r="D19">
-        <v>10.01864846564837</v>
+        <v>10.01702950872373</v>
       </c>
       <c r="E19">
-        <v>13.17704531860833</v>
+        <v>13.1749595718879</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.47303454030687</v>
+        <v>76.35492077809134</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>76.44737931327298</v>
       </c>
       <c r="I19">
-        <v>6.088745727113394</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.087780356518394</v>
       </c>
       <c r="K19">
-        <v>17.05960890870688</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>17.05553200933857</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.19297451322578</v>
+        <v>32.18154132437011</v>
       </c>
       <c r="C20">
-        <v>20.35554320932173</v>
+        <v>20.34323558896324</v>
       </c>
       <c r="D20">
-        <v>10.26323810009815</v>
+        <v>10.26145063421382</v>
       </c>
       <c r="E20">
-        <v>13.45789960768783</v>
+        <v>13.45561935842504</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.16225647051466</v>
+        <v>78.09512876378638</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>78.13479964183925</v>
       </c>
       <c r="I20">
-        <v>6.165905898040847</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.164869476985102</v>
       </c>
       <c r="K20">
-        <v>17.48247252546051</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>17.47800996151686</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.88059087451074</v>
+        <v>34.86527044869213</v>
       </c>
       <c r="C21">
-        <v>22.12432484286595</v>
+        <v>22.10842880092348</v>
       </c>
       <c r="D21">
-        <v>11.08577213089892</v>
+        <v>11.08330563549353</v>
       </c>
       <c r="E21">
-        <v>14.4991248784956</v>
+        <v>14.49637560700903</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.87933225822614</v>
+        <v>83.97355094453275</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>83.97355094453276</v>
       </c>
       <c r="I21">
-        <v>6.436136790894464</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.434822035167638</v>
       </c>
       <c r="K21">
-        <v>18.90840535654427</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>18.90241673585124</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.66628524668701</v>
+        <v>36.64786557614569</v>
       </c>
       <c r="C22">
-        <v>23.30940014112651</v>
+        <v>23.29069770593314</v>
       </c>
       <c r="D22">
-        <v>11.6287183851206</v>
+        <v>11.62568738778889</v>
       </c>
       <c r="E22">
-        <v>15.21102064610005</v>
+        <v>15.20760967719299</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.7187821010351</v>
+        <v>87.87369082823754</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>87.87369082842872</v>
       </c>
       <c r="I22">
-        <v>6.622948985832067</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.621407872804159</v>
       </c>
       <c r="K22">
-        <v>19.85342679678817</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>19.84619520652247</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.70919417507392</v>
+        <v>35.69249288600093</v>
       </c>
       <c r="C23">
-        <v>22.67318326720273</v>
+        <v>22.65603173500352</v>
       </c>
       <c r="D23">
-        <v>11.33807928629347</v>
+        <v>11.33536362516867</v>
       </c>
       <c r="E23">
-        <v>14.82990684769473</v>
+        <v>14.82686655642134</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.64329432666293</v>
+        <v>85.78411971230592</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>85.78411971230757</v>
       </c>
       <c r="I23">
-        <v>6.522154442003676</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.520739441139296</v>
       </c>
       <c r="K23">
-        <v>19.3471489707583</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>19.34060931366145</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.14927638656982</v>
+        <v>32.1378997018162</v>
       </c>
       <c r="C24">
-        <v>20.32691963483105</v>
+        <v>20.31466487552377</v>
       </c>
       <c r="D24">
-        <v>10.24981387445066</v>
+        <v>10.2480360152154</v>
       </c>
       <c r="E24">
-        <v>13.44244263835628</v>
+        <v>13.44017347453282</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.06940788409104</v>
+        <v>77.99951953797277</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>78.04205228945821</v>
       </c>
       <c r="I24">
-        <v>6.161631521333765</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.160599122092178</v>
       </c>
       <c r="K24">
-        <v>17.45925113493145</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>17.45481047102944</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.33111234119506</v>
+        <v>28.3239820564724</v>
       </c>
       <c r="C25">
-        <v>17.84039086226499</v>
+        <v>17.83218956774016</v>
       </c>
       <c r="D25">
-        <v>9.13274264722059</v>
+        <v>9.131816770288818</v>
       </c>
       <c r="E25">
-        <v>12.10584524348099</v>
+        <v>12.10438396204743</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.98240780709436</v>
+        <v>69.65179394960559</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>69.96301846103736</v>
       </c>
       <c r="I25">
-        <v>5.80496117436404</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.804233525019928</v>
       </c>
       <c r="K25">
-        <v>15.425294929762</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>15.42247686525605</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45535393220491</v>
+        <v>40.15149413982067</v>
       </c>
       <c r="C2">
-        <v>15.98063086659256</v>
+        <v>23.1407186923347</v>
       </c>
       <c r="D2">
-        <v>8.365919267043477</v>
+        <v>7.336371033912599</v>
       </c>
       <c r="E2">
-        <v>11.12410484389771</v>
+        <v>5.789532107468807</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.39849356240457</v>
+        <v>2.158820147307113</v>
       </c>
       <c r="H2">
-        <v>63.94091504735725</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.561087043830627</v>
+        <v>4.516382898705302</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.88665572222242</v>
+        <v>10.98117316791463</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>22.44387265010498</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.44765420621848</v>
+        <v>38.04372120651718</v>
       </c>
       <c r="C3">
-        <v>14.69049953835605</v>
+        <v>21.64292784487756</v>
       </c>
       <c r="D3">
-        <v>7.841439981581547</v>
+        <v>7.248452758462777</v>
       </c>
       <c r="E3">
-        <v>10.45546092629688</v>
+        <v>5.837958211104856</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>59.04703910687697</v>
+        <v>2.181641239215705</v>
       </c>
       <c r="H3">
-        <v>59.77019613849773</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.405702472846023</v>
+        <v>4.443419652655562</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.80724475004434</v>
+        <v>10.72821360254856</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>22.16895604514156</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.1773237518249</v>
+        <v>36.75665067642645</v>
       </c>
       <c r="C4">
-        <v>13.87584206989647</v>
+        <v>20.71323299512113</v>
       </c>
       <c r="D4">
-        <v>7.515900629839753</v>
+        <v>7.200843803456627</v>
       </c>
       <c r="E4">
-        <v>10.0417071310407</v>
+        <v>5.868625566856937</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>56.30905245988593</v>
+        <v>2.19570543551588</v>
       </c>
       <c r="H4">
-        <v>57.15620152858265</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.314336099692942</v>
+        <v>4.399263240495544</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.12195258519774</v>
+        <v>10.58301788920635</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>22.00740457567455</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.64946190817884</v>
+        <v>36.23378429862395</v>
       </c>
       <c r="C5">
-        <v>13.53757046630529</v>
+        <v>20.3316607199781</v>
       </c>
       <c r="D5">
-        <v>7.382304881625321</v>
+        <v>7.182942847462762</v>
       </c>
       <c r="E5">
-        <v>9.872221742636423</v>
+        <v>5.881370557333227</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>55.17560567428202</v>
+        <v>2.201464716189967</v>
       </c>
       <c r="H5">
-        <v>56.07674056742319</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.278050327843338</v>
+        <v>4.381386534368175</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.83658793936838</v>
+        <v>10.52624081013253</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>21.94322788423754</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.56117649934261</v>
+        <v>36.14706027892572</v>
       </c>
       <c r="C6">
-        <v>13.48100401708358</v>
+        <v>20.26813472272638</v>
       </c>
       <c r="D6">
-        <v>7.360064420015277</v>
+        <v>7.180058223604155</v>
       </c>
       <c r="E6">
-        <v>9.844025132502654</v>
+        <v>5.883502175565439</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>54.98630536305794</v>
+        <v>2.202423127653887</v>
       </c>
       <c r="H6">
-        <v>55.89661900939964</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.272080509776536</v>
+        <v>4.378424046928952</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.78882316948618</v>
+        <v>10.51695335094594</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>21.93266704314084</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.17024695779015</v>
+        <v>36.74959259312084</v>
       </c>
       <c r="C7">
-        <v>13.87130626310142</v>
+        <v>20.70809809357698</v>
       </c>
       <c r="D7">
-        <v>7.514102729038244</v>
+        <v>7.20059643834713</v>
       </c>
       <c r="E7">
-        <v>10.03942498573636</v>
+        <v>5.868796430668032</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>56.29383916523361</v>
+        <v>2.195782975629703</v>
       </c>
       <c r="H7">
-        <v>57.14170205275809</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.313842985469405</v>
+        <v>4.399021727171059</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.11812929946207</v>
+        <v>10.5822426789582</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>22.00653256040928</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.77040831097132</v>
+        <v>39.42308720589907</v>
       </c>
       <c r="C8">
-        <v>15.54005364729291</v>
+        <v>22.62619737264359</v>
       </c>
       <c r="D8">
-        <v>8.185755246853905</v>
+        <v>7.304668411247195</v>
       </c>
       <c r="E8">
-        <v>10.89415410105147</v>
+        <v>5.806043981725739</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>61.91108851287764</v>
+        <v>2.166687814326943</v>
       </c>
       <c r="H8">
-        <v>62.51323272362631</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.506625508938024</v>
+        <v>4.491062514038175</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.5188662570532</v>
+        <v>10.89175138661369</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>22.34746929582081</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.61390512195379</v>
+        <v>44.74394987502539</v>
       </c>
       <c r="C9">
-        <v>18.66881400232951</v>
+        <v>26.32668493996825</v>
       </c>
       <c r="D9">
-        <v>9.481063571964562</v>
+        <v>7.564757229360995</v>
       </c>
       <c r="E9">
-        <v>12.55269719663686</v>
+        <v>5.689718142869029</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>72.47248639279368</v>
+        <v>2.109221388888119</v>
       </c>
       <c r="H9">
-        <v>72.68843942835429</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.920851208822127</v>
+        <v>4.679152102652311</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>16.11096762718033</v>
+        <v>11.58761349499733</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>23.08265051626095</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.09634511579797</v>
+        <v>48.75894229516061</v>
       </c>
       <c r="C10">
-        <v>20.9430795665371</v>
+        <v>29.05336532445371</v>
       </c>
       <c r="D10">
-        <v>10.54228289579881</v>
+        <v>7.799423077289089</v>
       </c>
       <c r="E10">
-        <v>13.78719597394774</v>
+        <v>5.607243916037098</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>80.09928710011461</v>
+        <v>2.065278055954717</v>
       </c>
       <c r="H10">
-        <v>80.09928710011461</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.255295597522152</v>
+        <v>4.826528155464898</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>17.96403834741074</v>
+        <v>12.16896942475435</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>23.67964038647071</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.69011843218187</v>
+        <v>50.63206640827208</v>
       </c>
       <c r="C11">
-        <v>21.99270405922855</v>
+        <v>30.36383998881189</v>
       </c>
       <c r="D11">
-        <v>11.0298573308308</v>
+        <v>7.918558188933587</v>
       </c>
       <c r="E11">
-        <v>14.42630351945772</v>
+        <v>5.570060469486229</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>83.59006700807815</v>
+        <v>2.044447023301395</v>
       </c>
       <c r="H11">
-        <v>83.59006700813076</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.416785361179651</v>
+        <v>4.897042817043788</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>18.80958492860369</v>
+        <v>12.45393353315421</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>23.96871492282168</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.29815197138068</v>
+        <v>51.3511702883527</v>
       </c>
       <c r="C12">
-        <v>22.39476853839428</v>
+        <v>30.86413905672534</v>
       </c>
       <c r="D12">
-        <v>11.21528351296546</v>
+        <v>7.965792754599057</v>
       </c>
       <c r="E12">
-        <v>14.66941342348253</v>
+        <v>5.555995139485846</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>84.92114161700771</v>
+        <v>2.03638301093023</v>
       </c>
       <c r="H12">
-        <v>84.92114161700772</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.479633427393855</v>
+        <v>4.924420679306702</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>19.13177026426846</v>
+        <v>12.56543241919073</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>24.08130269963896</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.16693882808487</v>
+        <v>51.19580053648366</v>
       </c>
       <c r="C13">
-        <v>22.30792436772886</v>
+        <v>30.75616670839155</v>
       </c>
       <c r="D13">
-        <v>11.17529673755604</v>
+        <v>7.955518999908626</v>
       </c>
       <c r="E13">
-        <v>14.61698452246226</v>
+        <v>5.559024285883797</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>84.63394012530757</v>
+        <v>2.038128628581068</v>
       </c>
       <c r="H13">
-        <v>84.6339401253075</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.466015501148624</v>
+        <v>4.918490855040782</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>19.06226113663748</v>
+        <v>12.54124677135206</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>24.05690424132137</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.74002955671285</v>
+        <v>50.69100925896907</v>
       </c>
       <c r="C14">
-        <v>22.02567308521936</v>
+        <v>30.40490331845139</v>
       </c>
       <c r="D14">
-        <v>11.04509067469532</v>
+        <v>7.922399358441858</v>
       </c>
       <c r="E14">
-        <v>14.4462745530905</v>
+        <v>5.56890321563885</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>83.69934801728976</v>
+        <v>2.043787493599635</v>
       </c>
       <c r="H14">
-        <v>83.69934801728972</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.421919436746634</v>
+        <v>4.899280445892879</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>18.83604000677951</v>
+        <v>12.46303018059454</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>23.97791084028379</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.47923345998635</v>
+        <v>50.38319724392159</v>
       </c>
       <c r="C15">
-        <v>21.85347087007532</v>
+        <v>30.19034965755605</v>
       </c>
       <c r="D15">
-        <v>10.96546895603969</v>
+        <v>7.902400757426813</v>
       </c>
       <c r="E15">
-        <v>14.3418921830965</v>
+        <v>5.57495522912901</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>83.12829983034351</v>
+        <v>2.047228890356775</v>
       </c>
       <c r="H15">
-        <v>83.12829983034349</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.395142806872587</v>
+        <v>4.887607735676755</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>18.69779053530343</v>
+        <v>12.41561060026515</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>23.92995296533423</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.99262528512917</v>
+        <v>48.63770582592172</v>
       </c>
       <c r="C16">
-        <v>20.87497664463287</v>
+        <v>28.97161594136626</v>
       </c>
       <c r="D16">
-        <v>10.51047729468407</v>
+        <v>7.791913209943467</v>
       </c>
       <c r="E16">
-        <v>13.74551225912737</v>
+        <v>5.609678022776276</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.87206173605561</v>
+        <v>2.066618190391549</v>
       </c>
       <c r="H16">
-        <v>79.87206173608973</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.244957132532262</v>
+        <v>4.822003499717853</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>17.9089587297378</v>
+        <v>12.15080878054012</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>23.66114827349395</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.08501290330566</v>
+        <v>47.58070538593221</v>
       </c>
       <c r="C17">
-        <v>20.28004708237274</v>
+        <v>28.2574918968202</v>
       </c>
       <c r="D17">
-        <v>10.23177751929084</v>
+        <v>7.727515151043558</v>
       </c>
       <c r="E17">
-        <v>13.4214595765333</v>
+        <v>5.631043757733363</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.88365680787867</v>
+        <v>2.078263612607696</v>
       </c>
       <c r="H17">
-        <v>77.92966354091715</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.155429541345676</v>
+        <v>4.782755076388375</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>17.42669472087566</v>
+        <v>11.99400352580736</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>23.50110135933379</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.56364569519048</v>
+        <v>46.97690065125701</v>
       </c>
       <c r="C18">
-        <v>19.93909303027165</v>
+        <v>27.84835989263696</v>
       </c>
       <c r="D18">
-        <v>10.0713770400551</v>
+        <v>7.691615500307757</v>
       </c>
       <c r="E18">
-        <v>13.23722166007332</v>
+        <v>5.643366572749329</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>76.74151869629242</v>
+        <v>2.084886685605576</v>
       </c>
       <c r="H18">
-        <v>76.82212043825899</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.10478868642212</v>
+        <v>4.760494030658029</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>17.14942976929226</v>
+        <v>11.90569442192001</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>23.4106486676502</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.38715516701212</v>
+        <v>46.77310039514737</v>
       </c>
       <c r="C19">
-        <v>19.82380214940655</v>
+        <v>27.71005795610138</v>
       </c>
       <c r="D19">
-        <v>10.01702950872373</v>
+        <v>7.679647639612513</v>
       </c>
       <c r="E19">
-        <v>13.1749595718879</v>
+        <v>5.647545562910622</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>76.35492077809134</v>
+        <v>2.087117654993949</v>
       </c>
       <c r="H19">
-        <v>76.44737931327298</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.087780356518394</v>
+        <v>4.753006210196506</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>17.05553200933857</v>
+        <v>11.87610143193243</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>23.38028262512356</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.18154132437011</v>
+        <v>47.69277629963557</v>
       </c>
       <c r="C20">
-        <v>20.34323558896324</v>
+        <v>28.33333139785487</v>
       </c>
       <c r="D20">
-        <v>10.26145063421382</v>
+        <v>7.734250275145691</v>
       </c>
       <c r="E20">
-        <v>13.45561935842504</v>
+        <v>5.628766055358158</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.09512876378638</v>
+        <v>2.077032049638762</v>
       </c>
       <c r="H20">
-        <v>78.13479964183925</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.164869476985102</v>
+        <v>4.786899585164793</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>17.47800996151686</v>
+        <v>12.01049706802341</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>23.5179690365641</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.86527044869213</v>
+        <v>50.83898230206623</v>
       </c>
       <c r="C21">
-        <v>22.10842880092348</v>
+        <v>30.50794651224677</v>
       </c>
       <c r="D21">
-        <v>11.08330563549353</v>
+        <v>7.932066581345366</v>
       </c>
       <c r="E21">
-        <v>14.49637560700903</v>
+        <v>5.566001419762348</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>83.97355094453275</v>
+        <v>2.042130645311425</v>
       </c>
       <c r="H21">
-        <v>83.97355094453276</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.434822035167638</v>
+        <v>4.90490296893207</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>18.90241673585124</v>
+        <v>12.48590061569776</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>24.00102257239518</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.64786557614569</v>
+        <v>53.00357117585776</v>
       </c>
       <c r="C22">
-        <v>23.29069770593314</v>
+        <v>31.97484215284789</v>
       </c>
       <c r="D22">
-        <v>11.62568738778889</v>
+        <v>8.073960891436574</v>
       </c>
       <c r="E22">
-        <v>15.20760967719299</v>
+        <v>5.525048822742754</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>87.87369082823754</v>
+        <v>2.018255812838567</v>
       </c>
       <c r="H22">
-        <v>87.87369082842872</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.621407872804159</v>
+        <v>4.986093837371854</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>19.84619520652247</v>
+        <v>12.81801201354633</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>24.33536627345689</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.69249288600093</v>
+        <v>51.81869679816137</v>
       </c>
       <c r="C23">
-        <v>22.65603173500352</v>
+        <v>31.1886495282126</v>
       </c>
       <c r="D23">
-        <v>11.33536362516867</v>
+        <v>7.996931297323266</v>
       </c>
       <c r="E23">
-        <v>14.82686655642134</v>
+        <v>5.546912711516989</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>85.78411971230592</v>
+        <v>2.031118995605107</v>
       </c>
       <c r="H23">
-        <v>85.78411971230757</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.520739441139296</v>
+        <v>4.942312857092364</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>19.34060931366145</v>
+        <v>12.63852106281632</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>24.15495769242304</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.1378997018162</v>
+        <v>47.6420971723724</v>
       </c>
       <c r="C24">
-        <v>20.31466487552377</v>
+        <v>28.29904006491578</v>
       </c>
       <c r="D24">
-        <v>10.2480360152154</v>
+        <v>7.73120184963857</v>
       </c>
       <c r="E24">
-        <v>13.44017347453282</v>
+        <v>5.629795679595245</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>77.99951953797277</v>
+        <v>2.077589059758211</v>
       </c>
       <c r="H24">
-        <v>78.04205228945821</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.160599122092178</v>
+        <v>4.785024920143125</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>17.45481047102944</v>
+        <v>12.00303465035891</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>23.51033834207455</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.3239820564724</v>
+        <v>43.29177351434909</v>
       </c>
       <c r="C25">
-        <v>17.83218956774016</v>
+        <v>25.32856820244292</v>
       </c>
       <c r="D25">
-        <v>9.131816770288818</v>
+        <v>7.48754810661165</v>
       </c>
       <c r="E25">
-        <v>12.10438396204743</v>
+        <v>5.720570708026314</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>69.65179394960559</v>
+        <v>2.124942706142733</v>
       </c>
       <c r="H25">
-        <v>69.96301846103736</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.804233525019928</v>
+        <v>4.627054071805992</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>15.42247686525605</v>
+        <v>11.38845558133789</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>22.87518534081389</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,125 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="B2">
+        <v>24.98858386648651</v>
+      </c>
+      <c r="C2">
+        <v>14.90226869108312</v>
+      </c>
+      <c r="D2">
+        <v>8.469191549276168</v>
+      </c>
+      <c r="E2">
+        <v>7.371252860557502</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>48.22529266323428</v>
+      </c>
+      <c r="H2">
+        <v>2.981520069229641</v>
+      </c>
+      <c r="I2">
+        <v>3.439991500211613</v>
+      </c>
+      <c r="J2">
+        <v>14.57578745684626</v>
+      </c>
+      <c r="K2">
+        <v>22.28889302368406</v>
+      </c>
+      <c r="L2">
+        <v>4.8417845879731</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>9.298219484326815</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.27219423145358</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>23.4559581127104</v>
+      </c>
+      <c r="C3">
+        <v>13.87965934409281</v>
+      </c>
+      <c r="D3">
+        <v>8.235888080221409</v>
+      </c>
+      <c r="E3">
+        <v>7.210577107072538</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>46.35578139031315</v>
+      </c>
+      <c r="H3">
+        <v>3.29363372418914</v>
+      </c>
+      <c r="I3">
+        <v>3.684061243263716</v>
+      </c>
+      <c r="J3">
+        <v>14.28477059684946</v>
+      </c>
+      <c r="K3">
+        <v>21.89767716808283</v>
+      </c>
+      <c r="L3">
+        <v>4.726347563679841</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>8.952247086652608</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.43281642446537</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>22.46344576594222</v>
+      </c>
+      <c r="C4">
+        <v>13.21857842009639</v>
+      </c>
+      <c r="D4">
+        <v>8.090851340475956</v>
+      </c>
+      <c r="E4">
+        <v>7.109104914616493</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>45.18288716635316</v>
+      </c>
+      <c r="H4">
+        <v>3.491521515382883</v>
+      </c>
+      <c r="I4">
+        <v>3.839366035565988</v>
+      </c>
+      <c r="J4">
+        <v>14.10674762908123</v>
+      </c>
+      <c r="K4">
+        <v>21.65782925982657</v>
+      </c>
+      <c r="L4">
+        <v>4.65334885322228</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>8.734208774448303</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.53215588117879</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>22.03865286823082</v>
+      </c>
+      <c r="C5">
+        <v>12.94620133785404</v>
+      </c>
+      <c r="D5">
+        <v>8.030758965541189</v>
+      </c>
+      <c r="E5">
+        <v>7.066254934165526</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>44.67534693358377</v>
+      </c>
+      <c r="H5">
+        <v>3.574310920933892</v>
+      </c>
+      <c r="I5">
+        <v>3.906748627124537</v>
+      </c>
+      <c r="J5">
+        <v>14.02966656062882</v>
+      </c>
+      <c r="K5">
+        <v>21.55042733888426</v>
+      </c>
+      <c r="L5">
+        <v>4.622942611758398</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>8.644621794928812</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.57183815847757</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>21.95813094334697</v>
+      </c>
+      <c r="C6">
+        <v>12.90709968668853</v>
+      </c>
+      <c r="D6">
+        <v>8.020026818518065</v>
+      </c>
+      <c r="E6">
+        <v>7.058136685260052</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>44.56157458740054</v>
+      </c>
+      <c r="H6">
+        <v>3.588815969935493</v>
+      </c>
+      <c r="I6">
+        <v>3.921469469224871</v>
+      </c>
+      <c r="J6">
+        <v>14.01107107919577</v>
+      </c>
+      <c r="K6">
+        <v>21.52061918015072</v>
+      </c>
+      <c r="L6">
+        <v>4.617722891928336</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>8.630389941105054</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.57722603841205</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>22.43313253597534</v>
+      </c>
+      <c r="C7">
+        <v>13.23258990470804</v>
+      </c>
+      <c r="D7">
+        <v>8.088064936585679</v>
+      </c>
+      <c r="E7">
+        <v>7.105935918102118</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>45.09743626412839</v>
+      </c>
+      <c r="H7">
+        <v>3.494411566464035</v>
+      </c>
+      <c r="I7">
+        <v>3.84944643408384</v>
+      </c>
+      <c r="J7">
+        <v>14.08994336732619</v>
+      </c>
+      <c r="K7">
+        <v>21.62383614065081</v>
+      </c>
+      <c r="L7">
+        <v>4.652574594810767</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>8.734954880600096</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.5294384633324</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>24.44056265710972</v>
+      </c>
+      <c r="C8">
+        <v>14.57792205064372</v>
+      </c>
+      <c r="D8">
+        <v>8.386635989734113</v>
+      </c>
+      <c r="E8">
+        <v>7.313119283139905</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>47.48687620585962</v>
+      </c>
+      <c r="H8">
+        <v>3.090124913095027</v>
+      </c>
+      <c r="I8">
+        <v>3.534921596791616</v>
+      </c>
+      <c r="J8">
+        <v>14.45498837892049</v>
+      </c>
+      <c r="K8">
+        <v>22.11181035499401</v>
+      </c>
+      <c r="L8">
+        <v>4.801965767279228</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>9.182625722834395</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.32342322702939</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>28.00430306078371</v>
+      </c>
+      <c r="C9">
+        <v>16.92790720104097</v>
+      </c>
+      <c r="D9">
+        <v>8.958929089482821</v>
+      </c>
+      <c r="E9">
+        <v>7.701830536816626</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>52.08522464953489</v>
+      </c>
+      <c r="H9">
+        <v>2.342139805977755</v>
+      </c>
+      <c r="I9">
+        <v>2.944972486272386</v>
+      </c>
+      <c r="J9">
+        <v>15.20138070885493</v>
+      </c>
+      <c r="K9">
+        <v>23.12627662245011</v>
+      </c>
+      <c r="L9">
+        <v>5.079312276870262</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.00939689776666</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.92946853515198</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>30.27065930665732</v>
+      </c>
+      <c r="C10">
+        <v>18.49038515034529</v>
+      </c>
+      <c r="D10">
+        <v>9.308670148236285</v>
+      </c>
+      <c r="E10">
+        <v>7.916173635717261</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>54.92856440468723</v>
+      </c>
+      <c r="H10">
+        <v>1.855301376579767</v>
+      </c>
+      <c r="I10">
+        <v>2.552361582432343</v>
+      </c>
+      <c r="J10">
+        <v>15.6681891168819</v>
+      </c>
+      <c r="K10">
+        <v>23.72146878001372</v>
+      </c>
+      <c r="L10">
+        <v>5.282986452450444</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10.48796592042394</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.63045523635659</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>30.46558316630911</v>
+      </c>
+      <c r="C11">
+        <v>19.0484091431816</v>
+      </c>
+      <c r="D11">
+        <v>8.971621265352837</v>
+      </c>
+      <c r="E11">
+        <v>7.582095168673515</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>53.11126364905703</v>
+      </c>
+      <c r="H11">
+        <v>2.798026647060607</v>
+      </c>
+      <c r="I11">
+        <v>2.521755810659758</v>
+      </c>
+      <c r="J11">
+        <v>15.21769779558814</v>
+      </c>
+      <c r="K11">
+        <v>22.79296858130869</v>
+      </c>
+      <c r="L11">
+        <v>5.487268288215638</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9.871340224883033</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.43294142067636</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>30.18847144679244</v>
+      </c>
+      <c r="C12">
+        <v>19.17942077270892</v>
+      </c>
+      <c r="D12">
+        <v>8.613418197736308</v>
+      </c>
+      <c r="E12">
+        <v>7.358175019436603</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>51.04847086438303</v>
+      </c>
+      <c r="H12">
+        <v>4.175107675870329</v>
+      </c>
+      <c r="I12">
+        <v>2.523223487215519</v>
+      </c>
+      <c r="J12">
+        <v>14.75287639674518</v>
+      </c>
+      <c r="K12">
+        <v>21.92163879621404</v>
+      </c>
+      <c r="L12">
+        <v>5.663510759695316</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9.248750735130365</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.36488396674529</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>29.4936349067058</v>
+      </c>
+      <c r="C13">
+        <v>19.01396612425997</v>
+      </c>
+      <c r="D13">
+        <v>8.210126479738729</v>
+      </c>
+      <c r="E13">
+        <v>7.206685873990655</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>48.51667895257721</v>
+      </c>
+      <c r="H13">
+        <v>5.610553803166163</v>
+      </c>
+      <c r="I13">
+        <v>2.548859203805837</v>
+      </c>
+      <c r="J13">
+        <v>14.2204187926766</v>
+      </c>
+      <c r="K13">
+        <v>20.98721921675417</v>
+      </c>
+      <c r="L13">
+        <v>5.824654003640575</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>8.578040875547854</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.38510230595981</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>28.80277359064696</v>
+      </c>
+      <c r="C14">
+        <v>18.76607982250345</v>
+      </c>
+      <c r="D14">
+        <v>7.906111887097629</v>
+      </c>
+      <c r="E14">
+        <v>7.150139836721525</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>46.48867881165988</v>
+      </c>
+      <c r="H14">
+        <v>6.630786923911185</v>
+      </c>
+      <c r="I14">
+        <v>2.631737961617056</v>
+      </c>
+      <c r="J14">
+        <v>13.81163261047878</v>
+      </c>
+      <c r="K14">
+        <v>20.29686983342839</v>
+      </c>
+      <c r="L14">
+        <v>5.934739434062852</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>8.086669357753177</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.44140265419375</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>28.53559137894408</v>
+      </c>
+      <c r="C15">
+        <v>18.64667363663481</v>
+      </c>
+      <c r="D15">
+        <v>7.822133931071471</v>
+      </c>
+      <c r="E15">
+        <v>7.137627073743509</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>45.86875741957626</v>
+      </c>
+      <c r="H15">
+        <v>6.871005230679968</v>
+      </c>
+      <c r="I15">
+        <v>2.672360925156418</v>
+      </c>
+      <c r="J15">
+        <v>13.69337825156324</v>
+      </c>
+      <c r="K15">
+        <v>20.10612758852687</v>
+      </c>
+      <c r="L15">
+        <v>5.952748495850527</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>7.956882230160146</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.46961679057146</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>27.68102979615948</v>
+      </c>
+      <c r="C16">
+        <v>18.03783761282818</v>
+      </c>
+      <c r="D16">
+        <v>7.74339484164224</v>
+      </c>
+      <c r="E16">
+        <v>7.068779627885879</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>44.99854460745053</v>
+      </c>
+      <c r="H16">
+        <v>6.702583446908987</v>
+      </c>
+      <c r="I16">
+        <v>2.831030386568519</v>
+      </c>
+      <c r="J16">
+        <v>13.57914222015318</v>
+      </c>
+      <c r="K16">
+        <v>20.00571227373035</v>
+      </c>
+      <c r="L16">
+        <v>5.835276225049803</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>7.866929269944527</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.58310936881644</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>27.39796729750115</v>
+      </c>
+      <c r="C17">
+        <v>17.69992383716562</v>
+      </c>
+      <c r="D17">
+        <v>7.846952279347687</v>
+      </c>
+      <c r="E17">
+        <v>7.035432084731384</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>45.44355146111346</v>
+      </c>
+      <c r="H17">
+        <v>6.009025596192842</v>
+      </c>
+      <c r="I17">
+        <v>2.909814120865391</v>
+      </c>
+      <c r="J17">
+        <v>13.71225857333634</v>
+      </c>
+      <c r="K17">
+        <v>20.29807684365138</v>
+      </c>
+      <c r="L17">
+        <v>5.681088048867405</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>8.06303856523482</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.6400600183101</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>27.6021498516742</v>
+      </c>
+      <c r="C18">
+        <v>17.55293286106001</v>
+      </c>
+      <c r="D18">
+        <v>8.122101062745354</v>
+      </c>
+      <c r="E18">
+        <v>7.088193698146405</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>47.12278650443089</v>
+      </c>
+      <c r="H18">
+        <v>4.817007154740902</v>
+      </c>
+      <c r="I18">
+        <v>2.915193755034535</v>
+      </c>
+      <c r="J18">
+        <v>14.0831700539141</v>
+      </c>
+      <c r="K18">
+        <v>20.98692288331848</v>
+      </c>
+      <c r="L18">
+        <v>5.496197524990735</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>8.534873747421091</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.66975504390043</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>28.13976430223378</v>
+      </c>
+      <c r="C19">
+        <v>17.5983621850444</v>
+      </c>
+      <c r="D19">
+        <v>8.513123538619976</v>
+      </c>
+      <c r="E19">
+        <v>7.287233636948878</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>49.51866800839979</v>
+      </c>
+      <c r="H19">
+        <v>3.42719329656474</v>
+      </c>
+      <c r="I19">
+        <v>2.878552038680857</v>
+      </c>
+      <c r="J19">
+        <v>14.59006906338562</v>
+      </c>
+      <c r="K19">
+        <v>21.89535606323439</v>
+      </c>
+      <c r="L19">
+        <v>5.331151259027666</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>9.203619682168734</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.6962494725278</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>29.62736544346402</v>
+      </c>
+      <c r="C20">
+        <v>18.13086524806875</v>
+      </c>
+      <c r="D20">
+        <v>9.209700058724026</v>
+      </c>
+      <c r="E20">
+        <v>7.85080185996838</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>53.96842892394395</v>
+      </c>
+      <c r="H20">
+        <v>1.985695626433758</v>
+      </c>
+      <c r="I20">
+        <v>2.688467848401765</v>
+      </c>
+      <c r="J20">
+        <v>15.49761836880497</v>
+      </c>
+      <c r="K20">
+        <v>23.46599100775591</v>
+      </c>
+      <c r="L20">
+        <v>5.229521692886582</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>10.36506505177533</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.70061181257467</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>31.43851602028544</v>
+      </c>
+      <c r="C21">
+        <v>19.29640567658942</v>
+      </c>
+      <c r="D21">
+        <v>9.56300381401852</v>
+      </c>
+      <c r="E21">
+        <v>8.102179590974908</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>56.68581300444633</v>
+      </c>
+      <c r="H21">
+        <v>1.566044206561064</v>
+      </c>
+      <c r="I21">
+        <v>2.638554146747986</v>
+      </c>
+      <c r="J21">
+        <v>15.98049044581892</v>
+      </c>
+      <c r="K21">
+        <v>24.15081900262716</v>
+      </c>
+      <c r="L21">
+        <v>5.369646029748081</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.8704497259817</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.48832163753728</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>32.55369238668447</v>
+      </c>
+      <c r="C22">
+        <v>20.0076654975755</v>
+      </c>
+      <c r="D22">
+        <v>9.763814567551725</v>
+      </c>
+      <c r="E22">
+        <v>8.237870458487135</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>58.33121497152886</v>
+      </c>
+      <c r="H22">
+        <v>1.804707157090707</v>
+      </c>
+      <c r="I22">
+        <v>2.826963341412498</v>
+      </c>
+      <c r="J22">
+        <v>16.27525497866314</v>
+      </c>
+      <c r="K22">
+        <v>24.56641423505069</v>
+      </c>
+      <c r="L22">
+        <v>5.464857803555709</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>11.14212554756628</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.34756300039659</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>31.984371030983</v>
+      </c>
+      <c r="C23">
+        <v>19.61587381987456</v>
+      </c>
+      <c r="D23">
+        <v>9.658885911456707</v>
+      </c>
+      <c r="E23">
+        <v>8.168277178304136</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>57.53082199382056</v>
+      </c>
+      <c r="H23">
+        <v>1.673654128881397</v>
+      </c>
+      <c r="I23">
+        <v>2.722294908611858</v>
+      </c>
+      <c r="J23">
+        <v>16.13440482615387</v>
+      </c>
+      <c r="K23">
+        <v>24.37903694855886</v>
+      </c>
+      <c r="L23">
+        <v>5.414484295690682</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.99583400226376</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.425607993015</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>29.70267763944814</v>
+      </c>
+      <c r="C24">
+        <v>18.10050599658856</v>
+      </c>
+      <c r="D24">
+        <v>9.252475228716218</v>
+      </c>
+      <c r="E24">
+        <v>7.896563328106093</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>54.32047101035571</v>
+      </c>
+      <c r="H24">
+        <v>1.963977046807249</v>
+      </c>
+      <c r="I24">
+        <v>2.664755417957699</v>
+      </c>
+      <c r="J24">
+        <v>15.5746121775986</v>
+      </c>
+      <c r="K24">
+        <v>23.61527051703096</v>
+      </c>
+      <c r="L24">
+        <v>5.220631529621081</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>10.43123517781029</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.7163400131991</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>27.04706003078933</v>
+      </c>
+      <c r="C25">
+        <v>16.34573858401689</v>
+      </c>
+      <c r="D25">
+        <v>8.802929599937258</v>
+      </c>
+      <c r="E25">
+        <v>7.594646466671517</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>50.74034021195211</v>
+      </c>
+      <c r="H25">
+        <v>2.542569150549357</v>
+      </c>
+      <c r="I25">
+        <v>3.117814275132739</v>
+      </c>
+      <c r="J25">
+        <v>14.97259521618826</v>
+      </c>
+      <c r="K25">
+        <v>22.79626824803664</v>
+      </c>
+      <c r="L25">
+        <v>5.005364340459476</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>9.794479233795645</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.03067722709404</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_26/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.98858386648651</v>
+        <v>23.93359790161485</v>
       </c>
       <c r="C2">
-        <v>14.90226869108312</v>
+        <v>15.52973818332272</v>
       </c>
       <c r="D2">
-        <v>8.469191549276168</v>
+        <v>8.400435186659347</v>
       </c>
       <c r="E2">
-        <v>7.371252860557502</v>
+        <v>7.295924872564882</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.22529266323428</v>
+        <v>44.31556427156062</v>
       </c>
       <c r="H2">
-        <v>2.981520069229641</v>
+        <v>2.84193277022774</v>
       </c>
       <c r="I2">
-        <v>3.439991500211613</v>
+        <v>3.275488558749907</v>
       </c>
       <c r="J2">
-        <v>14.57578745684626</v>
+        <v>13.96786471349224</v>
       </c>
       <c r="K2">
-        <v>22.28889302368406</v>
+        <v>20.53293575355804</v>
       </c>
       <c r="L2">
-        <v>4.8417845879731</v>
+        <v>16.46606097250744</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.07052646919646</v>
       </c>
       <c r="N2">
-        <v>9.298219484326815</v>
+        <v>4.844318219021824</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>13.27219423145358</v>
+        <v>9.486789059616445</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.99509140758914</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.4559581127104</v>
+        <v>22.48458894009034</v>
       </c>
       <c r="C3">
-        <v>13.87965934409281</v>
+        <v>14.44089332584761</v>
       </c>
       <c r="D3">
-        <v>8.235888080221409</v>
+        <v>8.181909692569876</v>
       </c>
       <c r="E3">
-        <v>7.210577107072538</v>
+        <v>7.160756754906386</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.35578139031315</v>
+        <v>42.80661543009847</v>
       </c>
       <c r="H3">
-        <v>3.29363372418914</v>
+        <v>3.12233451307255</v>
       </c>
       <c r="I3">
-        <v>3.684061243263716</v>
+        <v>3.485244333546664</v>
       </c>
       <c r="J3">
-        <v>14.28477059684946</v>
+        <v>13.69157079918104</v>
       </c>
       <c r="K3">
-        <v>21.89767716808283</v>
+        <v>20.27655201264717</v>
       </c>
       <c r="L3">
-        <v>4.726347563679841</v>
+        <v>16.39269209004318</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.76416169639127</v>
       </c>
       <c r="N3">
-        <v>8.952247086652608</v>
+        <v>4.736307213889931</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>13.43281642446537</v>
+        <v>9.140892912103535</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.1455954312424</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.46344576594222</v>
+        <v>21.54385324011156</v>
       </c>
       <c r="C4">
-        <v>13.21857842009639</v>
+        <v>13.73601499353124</v>
       </c>
       <c r="D4">
-        <v>8.090851340475956</v>
+        <v>8.04630714589881</v>
       </c>
       <c r="E4">
-        <v>7.109104914616493</v>
+        <v>7.075360952396566</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45.18288716635316</v>
+        <v>41.86486021759535</v>
       </c>
       <c r="H4">
-        <v>3.491521515382883</v>
+        <v>3.300355577292816</v>
       </c>
       <c r="I4">
-        <v>3.839366035565988</v>
+        <v>3.619190815826574</v>
       </c>
       <c r="J4">
-        <v>14.10674762908123</v>
+        <v>13.51907518349468</v>
       </c>
       <c r="K4">
-        <v>21.65782925982657</v>
+        <v>20.11905752857484</v>
       </c>
       <c r="L4">
-        <v>4.65334885322228</v>
+        <v>16.34170058385167</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.59330032337153</v>
       </c>
       <c r="N4">
-        <v>8.734208774448303</v>
+        <v>4.667984412182141</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>13.53215588117879</v>
+        <v>8.923133422648231</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.23923465469934</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.03865286823082</v>
+        <v>21.14050213416954</v>
       </c>
       <c r="C5">
-        <v>12.94620133785404</v>
+        <v>13.44487743658672</v>
       </c>
       <c r="D5">
-        <v>8.030758965541189</v>
+        <v>7.990186904861327</v>
       </c>
       <c r="E5">
-        <v>7.066254934165526</v>
+        <v>7.039248614781854</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.67534693358377</v>
+        <v>41.45508962833464</v>
       </c>
       <c r="H5">
-        <v>3.574310920933892</v>
+        <v>3.374890591034944</v>
       </c>
       <c r="I5">
-        <v>3.906748627124537</v>
+        <v>3.678185540864511</v>
       </c>
       <c r="J5">
-        <v>14.02966656062882</v>
+        <v>13.44353180616828</v>
       </c>
       <c r="K5">
-        <v>21.55042733888426</v>
+        <v>20.045828196024</v>
       </c>
       <c r="L5">
-        <v>4.622942611758398</v>
+        <v>16.31172285793931</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.52219610402095</v>
       </c>
       <c r="N5">
-        <v>8.644621794928812</v>
+        <v>4.639547394101904</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>13.57183815847757</v>
+        <v>8.833699877927003</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.27717692872549</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.95813094334697</v>
+        <v>21.06388146534432</v>
       </c>
       <c r="C6">
-        <v>12.90709968668853</v>
+        <v>13.40245356379173</v>
       </c>
       <c r="D6">
-        <v>8.020026818518065</v>
+        <v>7.980167813732233</v>
       </c>
       <c r="E6">
-        <v>7.058136685260052</v>
+        <v>7.032355343062063</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.56157458740054</v>
+        <v>41.35926233098092</v>
       </c>
       <c r="H6">
-        <v>3.588815969935493</v>
+        <v>3.387955194028343</v>
       </c>
       <c r="I6">
-        <v>3.921469469224871</v>
+        <v>3.692033845970396</v>
       </c>
       <c r="J6">
-        <v>14.01107107919577</v>
+        <v>13.42534216743315</v>
       </c>
       <c r="K6">
-        <v>21.52061918015072</v>
+        <v>20.02261970822956</v>
       </c>
       <c r="L6">
-        <v>4.617722891928336</v>
+        <v>16.29726677217891</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.5033246152046</v>
       </c>
       <c r="N6">
-        <v>8.630389941105054</v>
+        <v>4.634694690969502</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>13.57722603841205</v>
+        <v>8.819465283578303</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.28284761143212</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.43313253597534</v>
+        <v>21.50326105055964</v>
       </c>
       <c r="C7">
-        <v>13.23258990470804</v>
+        <v>13.73175794123777</v>
       </c>
       <c r="D7">
-        <v>8.088064936585679</v>
+        <v>8.044934142969067</v>
       </c>
       <c r="E7">
-        <v>7.105935918102118</v>
+        <v>7.073368245904672</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>45.09743626412839</v>
+        <v>41.85403410333986</v>
       </c>
       <c r="H7">
-        <v>3.494411566464035</v>
+        <v>3.303962267392863</v>
       </c>
       <c r="I7">
-        <v>3.84944643408384</v>
+        <v>3.631440355402026</v>
       </c>
       <c r="J7">
-        <v>14.08994336732619</v>
+        <v>13.44402147802861</v>
       </c>
       <c r="K7">
-        <v>21.62383614065081</v>
+        <v>20.07364051601134</v>
       </c>
       <c r="L7">
-        <v>4.652574594810767</v>
+        <v>16.30400067260524</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.56225475927014</v>
       </c>
       <c r="N7">
-        <v>8.734954880600096</v>
+        <v>4.666793943045016</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>13.5294384633324</v>
+        <v>8.921169392792594</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.23730480317292</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.44056265710972</v>
+        <v>23.38010063361922</v>
       </c>
       <c r="C8">
-        <v>14.57792205064372</v>
+        <v>15.12903559722887</v>
       </c>
       <c r="D8">
-        <v>8.386635989734113</v>
+        <v>8.327090589554958</v>
       </c>
       <c r="E8">
-        <v>7.313119283139905</v>
+        <v>7.249614424287834</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.48687620585962</v>
+        <v>43.92568415668598</v>
       </c>
       <c r="H8">
-        <v>3.090124913095027</v>
+        <v>2.942573112756425</v>
       </c>
       <c r="I8">
-        <v>3.534921596791616</v>
+        <v>3.363251107631698</v>
       </c>
       <c r="J8">
-        <v>14.45498837892049</v>
+        <v>13.66357975828062</v>
       </c>
       <c r="K8">
-        <v>22.11181035499401</v>
+        <v>20.35894122028409</v>
       </c>
       <c r="L8">
-        <v>4.801965767279228</v>
+        <v>16.37292635516599</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.90024577873714</v>
       </c>
       <c r="N8">
-        <v>9.182625722834395</v>
+        <v>4.805430485655499</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>13.32342322702939</v>
+        <v>9.362732593098851</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.04298993181909</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.00430306078371</v>
+        <v>26.73313521857712</v>
       </c>
       <c r="C9">
-        <v>16.92790720104097</v>
+        <v>17.62092107705652</v>
       </c>
       <c r="D9">
-        <v>8.958929089482821</v>
+        <v>8.865329056557519</v>
       </c>
       <c r="E9">
-        <v>7.701830536816626</v>
+        <v>7.57737850878142</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.08522464953489</v>
+        <v>47.72036932731666</v>
       </c>
       <c r="H9">
-        <v>2.342139805977755</v>
+        <v>2.27263597264183</v>
       </c>
       <c r="I9">
-        <v>2.944972486272386</v>
+        <v>2.856705874584262</v>
       </c>
       <c r="J9">
-        <v>15.20138070885493</v>
+        <v>14.31076031973313</v>
       </c>
       <c r="K9">
-        <v>23.12627662245011</v>
+        <v>21.02268393935853</v>
       </c>
       <c r="L9">
-        <v>5.079312276870262</v>
+        <v>16.54741382547643</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>14.76541935409844</v>
       </c>
       <c r="N9">
-        <v>10.00939689776666</v>
+        <v>5.064240729899261</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.92946853515198</v>
+        <v>10.18884052610648</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.67605489501198</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.27065930665732</v>
+        <v>28.80931699336349</v>
       </c>
       <c r="C10">
-        <v>18.49038515034529</v>
+        <v>19.18796246984781</v>
       </c>
       <c r="D10">
-        <v>9.308670148236285</v>
+        <v>9.199878381637747</v>
       </c>
       <c r="E10">
-        <v>7.916173635717261</v>
+        <v>7.757914809381762</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.92856440468723</v>
+        <v>50.41670550220169</v>
       </c>
       <c r="H10">
-        <v>1.855301376579767</v>
+        <v>1.845019779393553</v>
       </c>
       <c r="I10">
-        <v>2.552361582432343</v>
+        <v>2.528215455543417</v>
       </c>
       <c r="J10">
-        <v>15.6681891168819</v>
+        <v>14.39088573744044</v>
       </c>
       <c r="K10">
-        <v>23.72146878001372</v>
+        <v>21.30870641740738</v>
       </c>
       <c r="L10">
-        <v>5.282986452450444</v>
+        <v>16.49863935938869</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.31091743741042</v>
       </c>
       <c r="N10">
-        <v>10.48796592042394</v>
+        <v>5.253681505640791</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.63045523635659</v>
+        <v>10.65345812586823</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.40981247370974</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.46558316630911</v>
+        <v>28.9333973633145</v>
       </c>
       <c r="C11">
-        <v>19.0484091431816</v>
+        <v>19.55273446969859</v>
       </c>
       <c r="D11">
-        <v>8.971621265352837</v>
+        <v>8.879044964594849</v>
       </c>
       <c r="E11">
-        <v>7.582095168673515</v>
+        <v>7.44843761910112</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>53.11126364905703</v>
+        <v>49.49274506598429</v>
       </c>
       <c r="H11">
-        <v>2.798026647060607</v>
+        <v>2.803990033942763</v>
       </c>
       <c r="I11">
-        <v>2.521755810659758</v>
+        <v>2.539747208607443</v>
       </c>
       <c r="J11">
-        <v>15.21769779558814</v>
+        <v>13.34982691266167</v>
       </c>
       <c r="K11">
-        <v>22.79296858130869</v>
+        <v>20.31507222784941</v>
       </c>
       <c r="L11">
-        <v>5.487268288215638</v>
+        <v>15.64619876372903</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.68963349189507</v>
       </c>
       <c r="N11">
-        <v>9.871340224883033</v>
+        <v>5.459988152848973</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.43294142067636</v>
+        <v>10.00071144623809</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.32084704457857</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.18847144679244</v>
+        <v>28.66714380145628</v>
       </c>
       <c r="C12">
-        <v>19.17942077270892</v>
+        <v>19.56579549066099</v>
       </c>
       <c r="D12">
-        <v>8.613418197736308</v>
+        <v>8.53302768457592</v>
       </c>
       <c r="E12">
-        <v>7.358175019436603</v>
+        <v>7.245346285915852</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>51.04847086438303</v>
+        <v>47.99911425515909</v>
       </c>
       <c r="H12">
-        <v>4.175107675870329</v>
+        <v>4.18007851766709</v>
       </c>
       <c r="I12">
-        <v>2.523223487215519</v>
+        <v>2.539391614524661</v>
       </c>
       <c r="J12">
-        <v>14.75287639674518</v>
+        <v>12.6723633854529</v>
       </c>
       <c r="K12">
-        <v>21.92163879621404</v>
+        <v>19.50400263100712</v>
       </c>
       <c r="L12">
-        <v>5.663510759695316</v>
+        <v>15.01372295578901</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.10644998948183</v>
       </c>
       <c r="N12">
-        <v>9.248750735130365</v>
+        <v>5.639426515128519</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.36488396674529</v>
+        <v>9.358783896938883</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.33445783837022</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.4936349067058</v>
+        <v>28.07103918586756</v>
       </c>
       <c r="C13">
-        <v>19.01396612425997</v>
+        <v>19.36183107810626</v>
       </c>
       <c r="D13">
-        <v>8.210126479738729</v>
+        <v>8.137202609730323</v>
       </c>
       <c r="E13">
-        <v>7.206685873990655</v>
+        <v>7.11709058248234</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>48.51667895257721</v>
+        <v>45.68287745318522</v>
       </c>
       <c r="H13">
-        <v>5.610553803166163</v>
+        <v>5.609953470332111</v>
       </c>
       <c r="I13">
-        <v>2.548859203805837</v>
+        <v>2.536677557265751</v>
       </c>
       <c r="J13">
-        <v>14.2204187926766</v>
+        <v>12.31309173217271</v>
       </c>
       <c r="K13">
-        <v>20.98721921675417</v>
+        <v>18.76446885572345</v>
       </c>
       <c r="L13">
-        <v>5.824654003640575</v>
+        <v>14.4875692517568</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.50636649660782</v>
       </c>
       <c r="N13">
-        <v>8.578040875547854</v>
+        <v>5.808715257462915</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.38510230595981</v>
+        <v>8.684969744797979</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.41120081485649</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.80277359064696</v>
+        <v>27.48945914143149</v>
       </c>
       <c r="C14">
-        <v>18.76607982250345</v>
+        <v>19.12075391451435</v>
       </c>
       <c r="D14">
-        <v>7.906111887097629</v>
+        <v>7.83673855066998</v>
       </c>
       <c r="E14">
-        <v>7.150139836721525</v>
+        <v>7.08042130138185</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>46.48867881165988</v>
+        <v>43.6568009004658</v>
       </c>
       <c r="H14">
-        <v>6.630786923911185</v>
+        <v>6.62545893480857</v>
       </c>
       <c r="I14">
-        <v>2.631737961617056</v>
+        <v>2.603496622592897</v>
       </c>
       <c r="J14">
-        <v>13.81163261047878</v>
+        <v>12.18562770700841</v>
       </c>
       <c r="K14">
-        <v>20.29686983342839</v>
+        <v>18.26860670221911</v>
       </c>
       <c r="L14">
-        <v>5.934739434062852</v>
+        <v>14.15568833851739</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.07302223373591</v>
       </c>
       <c r="N14">
-        <v>8.086669357753177</v>
+        <v>5.927346040164345</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.44140265419375</v>
+        <v>8.198061524336355</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.49141230390409</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.53559137894408</v>
+        <v>27.26651189474292</v>
       </c>
       <c r="C15">
-        <v>18.64667363663481</v>
+        <v>19.0174565785197</v>
       </c>
       <c r="D15">
-        <v>7.822133931071471</v>
+        <v>7.753075651261754</v>
       </c>
       <c r="E15">
-        <v>7.137627073743509</v>
+        <v>7.074837130311439</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.86875741957626</v>
+        <v>42.97587836627424</v>
       </c>
       <c r="H15">
-        <v>6.871005230679968</v>
+        <v>6.863649962017243</v>
       </c>
       <c r="I15">
-        <v>2.672360925156418</v>
+        <v>2.6376571668134</v>
       </c>
       <c r="J15">
-        <v>13.69337825156324</v>
+        <v>12.20362987033042</v>
       </c>
       <c r="K15">
-        <v>20.10612758852687</v>
+        <v>18.15037100465711</v>
       </c>
       <c r="L15">
-        <v>5.952748495850527</v>
+        <v>14.08514126197237</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.95643663304711</v>
       </c>
       <c r="N15">
-        <v>7.956882230160146</v>
+        <v>5.949004705562398</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.46961679057146</v>
+        <v>8.072168325219472</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.51992507232485</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.68102979615948</v>
+        <v>26.5580090776247</v>
       </c>
       <c r="C16">
-        <v>18.03783761282818</v>
+        <v>18.52845027206729</v>
       </c>
       <c r="D16">
-        <v>7.74339484164224</v>
+        <v>7.670383109898167</v>
       </c>
       <c r="E16">
-        <v>7.068779627885879</v>
+        <v>7.022608155840122</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>44.99854460745053</v>
+        <v>41.60610729019956</v>
       </c>
       <c r="H16">
-        <v>6.702583446908987</v>
+        <v>6.684518637518361</v>
       </c>
       <c r="I16">
-        <v>2.831030386568519</v>
+        <v>2.766590008404226</v>
       </c>
       <c r="J16">
-        <v>13.57914222015318</v>
+        <v>12.65167769655215</v>
       </c>
       <c r="K16">
-        <v>20.00571227373035</v>
+        <v>18.25383907380337</v>
       </c>
       <c r="L16">
-        <v>5.835276225049803</v>
+        <v>14.24153390916675</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.91726796074688</v>
       </c>
       <c r="N16">
-        <v>7.866929269944527</v>
+        <v>5.844938914824622</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.58310936881644</v>
+        <v>8.006374346235599</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.58642823060512</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.39796729750115</v>
+        <v>26.31377153307356</v>
       </c>
       <c r="C17">
-        <v>17.69992383716562</v>
+        <v>18.25969328577808</v>
       </c>
       <c r="D17">
-        <v>7.846952279347687</v>
+        <v>7.770324096314661</v>
       </c>
       <c r="E17">
-        <v>7.035432084731384</v>
+        <v>6.987535422292343</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>45.44355146111346</v>
+        <v>41.75585823292353</v>
       </c>
       <c r="H17">
-        <v>6.009025596192842</v>
+        <v>5.982857427220044</v>
       </c>
       <c r="I17">
-        <v>2.909814120865391</v>
+        <v>2.832146166009344</v>
       </c>
       <c r="J17">
-        <v>13.71225857333634</v>
+        <v>13.00186567136685</v>
       </c>
       <c r="K17">
-        <v>20.29807684365138</v>
+        <v>18.5827373492531</v>
       </c>
       <c r="L17">
-        <v>5.681088048867405</v>
+        <v>14.53443991394055</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.10356073711013</v>
       </c>
       <c r="N17">
-        <v>8.06303856523482</v>
+        <v>5.694294624282406</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.6400600183101</v>
+        <v>8.216225754002341</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.60276171347461</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.6021498516742</v>
+        <v>26.48686828509001</v>
       </c>
       <c r="C18">
-        <v>17.55293286106001</v>
+        <v>18.17397196678595</v>
       </c>
       <c r="D18">
-        <v>8.122101062745354</v>
+        <v>8.038944540522271</v>
       </c>
       <c r="E18">
-        <v>7.088193698146405</v>
+        <v>7.02172057000752</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>47.12278650443089</v>
+        <v>43.14427958921812</v>
       </c>
       <c r="H18">
-        <v>4.817007154740902</v>
+        <v>4.78330980283619</v>
       </c>
       <c r="I18">
-        <v>2.915193755034535</v>
+        <v>2.834212466326417</v>
       </c>
       <c r="J18">
-        <v>14.0831700539141</v>
+        <v>13.4243554173498</v>
       </c>
       <c r="K18">
-        <v>20.98692288331848</v>
+        <v>19.19516834681903</v>
       </c>
       <c r="L18">
-        <v>5.496197524990735</v>
+        <v>15.02220941304317</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.53773297264827</v>
       </c>
       <c r="N18">
-        <v>8.534873747421091</v>
+        <v>5.50578433721603</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.66975504390043</v>
+        <v>8.698777893499853</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.58458650260387</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.13976430223378</v>
+        <v>26.95030782824215</v>
       </c>
       <c r="C19">
-        <v>17.5983621850444</v>
+        <v>18.28016143806805</v>
       </c>
       <c r="D19">
-        <v>8.513123538619976</v>
+        <v>8.420791336823701</v>
       </c>
       <c r="E19">
-        <v>7.287233636948878</v>
+        <v>7.190477944796076</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>49.51866800839979</v>
+        <v>45.22713518295889</v>
       </c>
       <c r="H19">
-        <v>3.42719329656474</v>
+        <v>3.386040901849522</v>
       </c>
       <c r="I19">
-        <v>2.878552038680857</v>
+        <v>2.805976819814373</v>
       </c>
       <c r="J19">
-        <v>14.59006906338562</v>
+        <v>13.89287917873401</v>
       </c>
       <c r="K19">
-        <v>21.89535606323439</v>
+        <v>19.95837594931831</v>
       </c>
       <c r="L19">
-        <v>5.331151259027666</v>
+        <v>15.60798312760591</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.1114391739755</v>
       </c>
       <c r="N19">
-        <v>9.203619682168734</v>
+        <v>5.331282929234177</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.6962494725278</v>
+        <v>9.376474002247404</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.55692349996387</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.62736544346402</v>
+        <v>28.25072866072685</v>
       </c>
       <c r="C20">
-        <v>18.13086524806875</v>
+        <v>18.87398339136059</v>
       </c>
       <c r="D20">
-        <v>9.209700058724026</v>
+        <v>9.101109854813311</v>
       </c>
       <c r="E20">
-        <v>7.85080185996838</v>
+        <v>7.699361869627795</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.96842892394395</v>
+        <v>49.2904805894243</v>
       </c>
       <c r="H20">
-        <v>1.985695626433758</v>
+        <v>1.956399382453526</v>
       </c>
       <c r="I20">
-        <v>2.688467848401765</v>
+        <v>2.649974618520336</v>
       </c>
       <c r="J20">
-        <v>15.49761836880497</v>
+        <v>14.51627367180446</v>
       </c>
       <c r="K20">
-        <v>23.46599100775591</v>
+        <v>21.19044712975411</v>
       </c>
       <c r="L20">
-        <v>5.229521692886582</v>
+        <v>16.48017520592186</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.13119009180817</v>
       </c>
       <c r="N20">
-        <v>10.36506505177533</v>
+        <v>5.206132920192128</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.70061181257467</v>
+        <v>10.54195687404605</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.47829927220939</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.43851602028544</v>
+        <v>29.73620090709881</v>
       </c>
       <c r="C21">
-        <v>19.29640567658942</v>
+        <v>19.81061912219623</v>
       </c>
       <c r="D21">
-        <v>9.56300381401852</v>
+        <v>9.462859947924519</v>
       </c>
       <c r="E21">
-        <v>8.102179590974908</v>
+        <v>7.935942427058741</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.68581300444633</v>
+        <v>52.95349408287867</v>
       </c>
       <c r="H21">
-        <v>1.566044206561064</v>
+        <v>1.599166651815073</v>
       </c>
       <c r="I21">
-        <v>2.638554146747986</v>
+        <v>2.634603850553998</v>
       </c>
       <c r="J21">
-        <v>15.98049044581892</v>
+        <v>13.70430474300685</v>
       </c>
       <c r="K21">
-        <v>24.15081900262716</v>
+        <v>21.35419484309326</v>
       </c>
       <c r="L21">
-        <v>5.369646029748081</v>
+        <v>16.3997526351494</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.51924744249241</v>
       </c>
       <c r="N21">
-        <v>10.8704497259817</v>
+        <v>5.323877933068255</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.48832163753728</v>
+        <v>10.99687244267974</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.27561639514537</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.55369238668447</v>
+        <v>30.63832248125691</v>
       </c>
       <c r="C22">
-        <v>20.0076654975755</v>
+        <v>20.35970095421334</v>
       </c>
       <c r="D22">
-        <v>9.763814567551725</v>
+        <v>9.671876052704466</v>
       </c>
       <c r="E22">
-        <v>8.237870458487135</v>
+        <v>8.066913459272271</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.33121497152886</v>
+        <v>55.30744738783709</v>
       </c>
       <c r="H22">
-        <v>1.804707157090707</v>
+        <v>1.733155064772294</v>
       </c>
       <c r="I22">
-        <v>2.826963341412498</v>
+        <v>2.782324890848326</v>
       </c>
       <c r="J22">
-        <v>16.27525497866314</v>
+        <v>13.10560009766837</v>
       </c>
       <c r="K22">
-        <v>24.56641423505069</v>
+        <v>21.42071992294491</v>
       </c>
       <c r="L22">
-        <v>5.464857803555709</v>
+        <v>16.31570743464098</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.74811708422133</v>
       </c>
       <c r="N22">
-        <v>11.14212554756628</v>
+        <v>5.405414289034566</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.34756300039659</v>
+        <v>11.23291573896947</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>12.14652035968004</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.984371030983</v>
+        <v>30.20371925405896</v>
       </c>
       <c r="C23">
-        <v>19.61587381987456</v>
+        <v>20.08723690493477</v>
       </c>
       <c r="D23">
-        <v>9.658885911456707</v>
+        <v>9.559301621530508</v>
       </c>
       <c r="E23">
-        <v>8.168277178304136</v>
+        <v>7.996817447936011</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.53082199382056</v>
+        <v>53.97093423781422</v>
       </c>
       <c r="H23">
-        <v>1.673654128881397</v>
+        <v>1.624577339075898</v>
       </c>
       <c r="I23">
-        <v>2.722294908611858</v>
+        <v>2.699146506332316</v>
       </c>
       <c r="J23">
-        <v>16.13440482615387</v>
+        <v>13.57083989945728</v>
       </c>
       <c r="K23">
-        <v>24.37903694855886</v>
+        <v>21.45102273142707</v>
       </c>
       <c r="L23">
-        <v>5.414484295690682</v>
+        <v>16.40846453191628</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.67714011443154</v>
       </c>
       <c r="N23">
-        <v>10.99583400226376</v>
+        <v>5.363241471291872</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.425607993015</v>
+        <v>11.1113900332547</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.21500562489322</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.70267763944814</v>
+        <v>28.31896606288354</v>
       </c>
       <c r="C24">
-        <v>18.10050599658856</v>
+        <v>18.85167574699967</v>
       </c>
       <c r="D24">
-        <v>9.252475228716218</v>
+        <v>9.142671915363341</v>
       </c>
       <c r="E24">
-        <v>7.896563328106093</v>
+        <v>7.741714355992521</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.32047101035571</v>
+        <v>49.59856383564625</v>
       </c>
       <c r="H24">
-        <v>1.963977046807249</v>
+        <v>1.935377166741727</v>
       </c>
       <c r="I24">
-        <v>2.664755417957699</v>
+        <v>2.62349648839949</v>
       </c>
       <c r="J24">
-        <v>15.5746121775986</v>
+        <v>14.59545768282353</v>
       </c>
       <c r="K24">
-        <v>23.61527051703096</v>
+        <v>21.32324078790985</v>
       </c>
       <c r="L24">
-        <v>5.220631529621081</v>
+        <v>16.58323647754263</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.2292778092322</v>
       </c>
       <c r="N24">
-        <v>10.43123517781029</v>
+        <v>5.195784523081095</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.7163400131991</v>
+        <v>10.60944311997303</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.48273630167483</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.04706003078933</v>
+        <v>25.84769878758581</v>
       </c>
       <c r="C25">
-        <v>16.34573858401689</v>
+        <v>17.02324865458694</v>
       </c>
       <c r="D25">
-        <v>8.802929599937258</v>
+        <v>8.716765969260598</v>
       </c>
       <c r="E25">
-        <v>7.594646466671517</v>
+        <v>7.485620336998755</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.74034021195211</v>
+        <v>46.50015110971319</v>
       </c>
       <c r="H25">
-        <v>2.542569150549357</v>
+        <v>2.450612020381067</v>
       </c>
       <c r="I25">
-        <v>3.117814275132739</v>
+        <v>3.008705626598622</v>
       </c>
       <c r="J25">
-        <v>14.97259521618826</v>
+        <v>14.19198242739493</v>
       </c>
       <c r="K25">
-        <v>22.79626824803664</v>
+        <v>20.81159669394328</v>
       </c>
       <c r="L25">
-        <v>5.005364340459476</v>
+        <v>16.48076681896724</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>14.49506609742006</v>
       </c>
       <c r="N25">
-        <v>9.794479233795645</v>
+        <v>4.996158550779587</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>13.03067722709404</v>
+        <v>9.977242961015776</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.77343307735012</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
